--- a/data/2020_03_03.xlsx
+++ b/data/2020_03_03.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgaenzle\Desktop\gänzle\weiteres\Lactobacillus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyts\Documents\Projects\new_lactobacillus_taxonomy\Lactotax\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876C7A8-852B-4CF7-84D9-F92CD532EAC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="2430" windowWidth="25980" windowHeight="15810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6003,8 +6004,215 @@
     <t>10.2323/jgam.3.111; 10.1016/S0723-2020(83)80008-3</t>
   </si>
   <si>
+    <t>10.1099/00207713-47-3-908; 10.1016/S0924-2244(98)00053-3</t>
+  </si>
+  <si>
+    <t>Lactobacillus ferintoshensis; Lactobacillus frigidus</t>
+  </si>
+  <si>
+    <t>10.1099/ijs.0.63779-0</t>
+  </si>
+  <si>
+    <t>Lactobacillus sobrius</t>
+  </si>
+  <si>
+    <t>Lactobacillus viridescens</t>
+  </si>
+  <si>
+    <t>JQBM00000000</t>
+  </si>
+  <si>
+    <t>Weissella</t>
+  </si>
+  <si>
+    <t>viridescens</t>
+  </si>
+  <si>
+    <t>10.1111/j.1365-2672.1993.tb01600.x</t>
+  </si>
+  <si>
+    <t>Lactobacillus kandleri</t>
+  </si>
+  <si>
+    <t>JQBP00000000</t>
+  </si>
+  <si>
+    <t>Lactobacillus minor</t>
+  </si>
+  <si>
+    <t>JQCD00000000</t>
+  </si>
+  <si>
+    <t>kandleri</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>Lactobacillus confusus</t>
+  </si>
+  <si>
+    <t>JQAY00000000</t>
+  </si>
+  <si>
+    <t>confusa</t>
+  </si>
+  <si>
+    <t>Lactobacillus halotolerans</t>
+  </si>
+  <si>
+    <t>JQAX00000000</t>
+  </si>
+  <si>
+    <t>halotolerans</t>
+  </si>
+  <si>
+    <t>Lactobacillus timonensis</t>
+  </si>
+  <si>
+    <t>10.1099/ijsem.0.004060</t>
+  </si>
+  <si>
+    <t>hegangensis</t>
+  </si>
+  <si>
+    <t>MK110833</t>
+  </si>
+  <si>
+    <t>73-4T =NCIMB 15177T=CCM 8912T=CCTCC AB 2018407T</t>
+  </si>
+  <si>
+    <t>RHOL00000000</t>
+  </si>
+  <si>
+    <t>suibinensis</t>
+  </si>
+  <si>
+    <t>MK110834</t>
+  </si>
+  <si>
+    <t>RHOK00000000</t>
+  </si>
+  <si>
+    <t>247-3T =NCIMB 15176T=JCM 33275T</t>
+  </si>
+  <si>
+    <t>daqingensis</t>
+  </si>
+  <si>
+    <t>143-4(a)T =NCIMB 15173T=CCM 8948T=JCM 33273T=CCTCC 2018390T</t>
+  </si>
+  <si>
+    <t>RHOH00000000</t>
+  </si>
+  <si>
+    <t>MK110842</t>
+  </si>
+  <si>
+    <t>yichunensis</t>
+  </si>
+  <si>
+    <t>33-1T =NCIMB 15169T=CCM 8947T=JCM 33272T=CCTCC 2018405T</t>
+  </si>
+  <si>
+    <t>RHOG00000000</t>
+  </si>
+  <si>
+    <t>MK110845</t>
+  </si>
+  <si>
+    <t>mulanensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 143-6T =NCIMB 15162T=CCM 8951T=JCM 33274T=CCTCC AB 2018411T</t>
+  </si>
+  <si>
+    <t>MK110808</t>
+  </si>
+  <si>
+    <t>RHOW00000000</t>
+  </si>
+  <si>
+    <t>achengensis</t>
+  </si>
+  <si>
+    <t>247-4T =NCIMB 15155T=CCM 8897T=LMG 31059T=CCTCC AB 2018410T</t>
+  </si>
+  <si>
+    <t>MK110810</t>
+  </si>
+  <si>
+    <t>RHOV00000000</t>
+  </si>
+  <si>
+    <t>wuchangensis</t>
+  </si>
+  <si>
+    <t>17-4T =NCIMB 15161T=CCM 8946T=JCM 33271T=CCTCC AB 2018406T</t>
+  </si>
+  <si>
+    <t>MK110811</t>
+  </si>
+  <si>
+    <t>RHOU00000000</t>
+  </si>
+  <si>
+    <t>gannanensis</t>
+  </si>
+  <si>
+    <t>143-1T =NCIMB 15157T=CCM 8937T=CCTCC AB 2018409T</t>
+  </si>
+  <si>
+    <t>MK110813</t>
+  </si>
+  <si>
+    <t>RHOT00000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binensis </t>
+  </si>
+  <si>
+    <t>735-2T =NCIMB 15190T=CCM 8925T=LMG 31186T</t>
+  </si>
+  <si>
+    <t>BJDN00000000</t>
+  </si>
+  <si>
+    <t>LC438524</t>
+  </si>
+  <si>
+    <t>angrenensis</t>
+  </si>
+  <si>
+    <t>M1530-1T =NCIMB 15150T=CCM 8893T=LMG 31046T=CCTCC AB 2018402T</t>
+  </si>
+  <si>
+    <t>fermented dairy beverage</t>
+  </si>
+  <si>
+    <t>MK110858</t>
+  </si>
+  <si>
+    <t>RHOB00000000</t>
+  </si>
+  <si>
+    <t>Lactobacillus maltaromaticus</t>
+  </si>
+  <si>
+    <t>10.1099/ijs.0.02405-0</t>
+  </si>
+  <si>
+    <t>Carnobacterium</t>
+  </si>
+  <si>
+    <t>maltaromaticum</t>
+  </si>
+  <si>
+    <t>JQBG01000000</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">L. sanfrancisco; Lactobacillus brevis </t>
+      <t xml:space="preserve">Lactobacillus sanfrancisco; Lactobacillus brevis </t>
     </r>
     <r>
       <rPr>
@@ -6026,218 +6234,11 @@
       <t>lindneri</t>
     </r>
   </si>
-  <si>
-    <t>10.1099/00207713-47-3-908; 10.1016/S0924-2244(98)00053-3</t>
-  </si>
-  <si>
-    <t>Lactobacillus ferintoshensis; Lactobacillus frigidus</t>
-  </si>
-  <si>
-    <t>10.1099/ijs.0.63779-0</t>
-  </si>
-  <si>
-    <t>Lactobacillus sobrius</t>
-  </si>
-  <si>
-    <t>Lactobacillus viridescens</t>
-  </si>
-  <si>
-    <t>JQBM00000000</t>
-  </si>
-  <si>
-    <t>Weissella</t>
-  </si>
-  <si>
-    <t>viridescens</t>
-  </si>
-  <si>
-    <t>10.1111/j.1365-2672.1993.tb01600.x</t>
-  </si>
-  <si>
-    <t>Lactobacillus kandleri</t>
-  </si>
-  <si>
-    <t>JQBP00000000</t>
-  </si>
-  <si>
-    <t>Lactobacillus minor</t>
-  </si>
-  <si>
-    <t>JQCD00000000</t>
-  </si>
-  <si>
-    <t>kandleri</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
-    <t>Lactobacillus confusus</t>
-  </si>
-  <si>
-    <t>JQAY00000000</t>
-  </si>
-  <si>
-    <t>confusa</t>
-  </si>
-  <si>
-    <t>Lactobacillus halotolerans</t>
-  </si>
-  <si>
-    <t>JQAX00000000</t>
-  </si>
-  <si>
-    <t>halotolerans</t>
-  </si>
-  <si>
-    <t>Lactobacillus timonensis</t>
-  </si>
-  <si>
-    <t>10.1099/ijsem.0.004060</t>
-  </si>
-  <si>
-    <t>hegangensis</t>
-  </si>
-  <si>
-    <t>MK110833</t>
-  </si>
-  <si>
-    <t>73-4T =NCIMB 15177T=CCM 8912T=CCTCC AB 2018407T</t>
-  </si>
-  <si>
-    <t>RHOL00000000</t>
-  </si>
-  <si>
-    <t>suibinensis</t>
-  </si>
-  <si>
-    <t>MK110834</t>
-  </si>
-  <si>
-    <t>RHOK00000000</t>
-  </si>
-  <si>
-    <t>247-3T =NCIMB 15176T=JCM 33275T</t>
-  </si>
-  <si>
-    <t>daqingensis</t>
-  </si>
-  <si>
-    <t>143-4(a)T =NCIMB 15173T=CCM 8948T=JCM 33273T=CCTCC 2018390T</t>
-  </si>
-  <si>
-    <t>RHOH00000000</t>
-  </si>
-  <si>
-    <t>MK110842</t>
-  </si>
-  <si>
-    <t>yichunensis</t>
-  </si>
-  <si>
-    <t>33-1T =NCIMB 15169T=CCM 8947T=JCM 33272T=CCTCC 2018405T</t>
-  </si>
-  <si>
-    <t>RHOG00000000</t>
-  </si>
-  <si>
-    <t>MK110845</t>
-  </si>
-  <si>
-    <t>mulanensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 143-6T =NCIMB 15162T=CCM 8951T=JCM 33274T=CCTCC AB 2018411T</t>
-  </si>
-  <si>
-    <t>MK110808</t>
-  </si>
-  <si>
-    <t>RHOW00000000</t>
-  </si>
-  <si>
-    <t>achengensis</t>
-  </si>
-  <si>
-    <t>247-4T =NCIMB 15155T=CCM 8897T=LMG 31059T=CCTCC AB 2018410T</t>
-  </si>
-  <si>
-    <t>MK110810</t>
-  </si>
-  <si>
-    <t>RHOV00000000</t>
-  </si>
-  <si>
-    <t>wuchangensis</t>
-  </si>
-  <si>
-    <t>17-4T =NCIMB 15161T=CCM 8946T=JCM 33271T=CCTCC AB 2018406T</t>
-  </si>
-  <si>
-    <t>MK110811</t>
-  </si>
-  <si>
-    <t>RHOU00000000</t>
-  </si>
-  <si>
-    <t>gannanensis</t>
-  </si>
-  <si>
-    <t>143-1T =NCIMB 15157T=CCM 8937T=CCTCC AB 2018409T</t>
-  </si>
-  <si>
-    <t>MK110813</t>
-  </si>
-  <si>
-    <t>RHOT00000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binensis </t>
-  </si>
-  <si>
-    <t>735-2T =NCIMB 15190T=CCM 8925T=LMG 31186T</t>
-  </si>
-  <si>
-    <t>BJDN00000000</t>
-  </si>
-  <si>
-    <t>LC438524</t>
-  </si>
-  <si>
-    <t>angrenensis</t>
-  </si>
-  <si>
-    <t>M1530-1T =NCIMB 15150T=CCM 8893T=LMG 31046T=CCTCC AB 2018402T</t>
-  </si>
-  <si>
-    <t>fermented dairy beverage</t>
-  </si>
-  <si>
-    <t>MK110858</t>
-  </si>
-  <si>
-    <t>RHOB00000000</t>
-  </si>
-  <si>
-    <t>Lactobacillus maltaromaticus</t>
-  </si>
-  <si>
-    <t>10.1099/ijs.0.02405-0</t>
-  </si>
-  <si>
-    <t>Carnobacterium</t>
-  </si>
-  <si>
-    <t>maltaromaticum</t>
-  </si>
-  <si>
-    <t>JQBG01000000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33">
     <font>
       <sz val="12"/>
@@ -7038,7 +7039,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="输入" xfId="1"/>
+    <cellStyle name="输入" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7349,37 +7350,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F277" sqref="F277"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="23"/>
+    <col min="1" max="1" width="10.69921875" style="23"/>
     <col min="2" max="2" width="12" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="5" customWidth="1"/>
-    <col min="4" max="6" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="5" customWidth="1"/>
+    <col min="4" max="6" width="12.3984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13" style="22" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="56" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="23" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="56" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" style="23" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="23" customWidth="1"/>
-    <col min="15" max="15" width="25.625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="23" customWidth="1"/>
-    <col min="17" max="17" width="17.375" style="28" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="93" customWidth="1"/>
-    <col min="19" max="19" width="17.375" style="28" customWidth="1"/>
-    <col min="20" max="20" width="14.25" style="23" customWidth="1"/>
-    <col min="21" max="21" width="10.75" style="4"/>
-    <col min="22" max="16384" width="10.75" style="17"/>
+    <col min="13" max="13" width="9.09765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="25.59765625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="14.19921875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" style="28" customWidth="1"/>
+    <col min="18" max="18" width="17.3984375" style="93" customWidth="1"/>
+    <col min="19" max="19" width="17.3984375" style="28" customWidth="1"/>
+    <col min="20" max="20" width="14.19921875" style="23" customWidth="1"/>
+    <col min="21" max="21" width="10.69921875" style="4"/>
+    <col min="22" max="16384" width="10.69921875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
@@ -7447,7 +7448,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="159" customFormat="1" ht="12.95" customHeight="1">
+    <row r="2" spans="1:21" s="159" customFormat="1" ht="12.9" customHeight="1">
       <c r="A2" s="80" t="s">
         <v>1062</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="3" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>1065</v>
       </c>
@@ -7557,7 +7558,7 @@
       </c>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="4" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A4" s="79" t="s">
         <v>1061</v>
       </c>
@@ -7610,7 +7611,7 @@
       </c>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="5" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>1062</v>
       </c>
@@ -7665,7 +7666,7 @@
       </c>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" s="127" customFormat="1" ht="12.95" customHeight="1">
+    <row r="6" spans="1:21" s="127" customFormat="1" ht="12.9" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>1062</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="7" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7775,7 +7776,7 @@
       </c>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="8" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7830,7 +7831,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="9" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7885,7 +7886,7 @@
       </c>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="10" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7938,7 +7939,7 @@
       </c>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="11" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7993,7 +7994,7 @@
       </c>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" s="18" customFormat="1" ht="12.95" customHeight="1">
+    <row r="12" spans="1:21" s="18" customFormat="1" ht="12.9" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>1063</v>
       </c>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="13" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8099,7 +8100,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="14" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8154,7 +8155,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="15" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8209,7 +8210,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="16" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8264,7 +8265,7 @@
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="17" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8319,7 +8320,7 @@
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="18" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8374,7 +8375,7 @@
       </c>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="19" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8429,7 +8430,7 @@
       </c>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="20" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8484,7 +8485,7 @@
       </c>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="21" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8539,7 +8540,7 @@
       </c>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="22" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8594,7 +8595,7 @@
       </c>
       <c r="U22" s="104"/>
     </row>
-    <row r="23" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="23" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8647,7 +8648,7 @@
       </c>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="24" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8702,7 +8703,7 @@
       </c>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="25" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>1062</v>
       </c>
@@ -8761,7 +8762,7 @@
       </c>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" s="107" customFormat="1" ht="12.95" customHeight="1">
+    <row r="26" spans="1:21" s="107" customFormat="1" ht="12.9" customHeight="1">
       <c r="A26" s="71" t="s">
         <v>1062</v>
       </c>
@@ -8818,7 +8819,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="107" customFormat="1" ht="12.95" customHeight="1">
+    <row r="27" spans="1:21" s="107" customFormat="1" ht="12.9" customHeight="1">
       <c r="A27" s="108" t="s">
         <v>1062</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="28" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8928,7 +8929,7 @@
       </c>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
+    <row r="29" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
       <c r="A29" s="23" t="s">
         <v>1062</v>
       </c>
@@ -8981,7 +8982,7 @@
       </c>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="30" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A30" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9034,7 +9035,7 @@
       </c>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="31" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A31" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9089,7 +9090,7 @@
       </c>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="32" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A32" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9142,7 +9143,7 @@
       </c>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="33" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A33" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9195,7 +9196,7 @@
       </c>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="34" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A34" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9248,7 +9249,7 @@
       </c>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="35" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A35" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9301,7 +9302,7 @@
       </c>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="36" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A36" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9356,7 +9357,7 @@
       </c>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="37" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A37" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9413,7 +9414,7 @@
       </c>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="38" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A38" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9468,7 +9469,7 @@
       </c>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="39" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A39" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9521,7 +9522,7 @@
       </c>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="40" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A40" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="41" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>1062</v>
       </c>
@@ -9631,7 +9632,7 @@
       </c>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="42" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A42" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9686,7 +9687,7 @@
       </c>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
+    <row r="43" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
       <c r="A43" s="81" t="s">
         <v>1062</v>
       </c>
@@ -9739,7 +9740,7 @@
       </c>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="12.95" customHeight="1">
+    <row r="44" spans="1:21" ht="12.9" customHeight="1">
       <c r="A44" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12.95" customHeight="1">
+    <row r="45" spans="1:21" ht="12.9" customHeight="1">
       <c r="A45" s="24" t="s">
         <v>1062</v>
       </c>
@@ -9843,7 +9844,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="12.95" customHeight="1">
+    <row r="46" spans="1:21" ht="12.9" customHeight="1">
       <c r="A46" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="47" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A47" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9947,7 +9948,7 @@
       </c>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="12.95" customHeight="1">
+    <row r="48" spans="1:21" ht="12.9" customHeight="1">
       <c r="A48" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="12.95" customHeight="1">
+    <row r="49" spans="1:21" ht="12.9" customHeight="1">
       <c r="A49" s="81" t="s">
         <v>1062</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="12.95" customHeight="1">
+    <row r="50" spans="1:21" ht="12.9" customHeight="1">
       <c r="A50" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10151,7 +10152,7 @@
       </c>
       <c r="U51" s="6"/>
     </row>
-    <row r="52" spans="1:21" ht="12.95" customHeight="1">
+    <row r="52" spans="1:21" ht="12.9" customHeight="1">
       <c r="A52" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="12.95" customHeight="1">
+    <row r="53" spans="1:21" ht="12.9" customHeight="1">
       <c r="A53" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="54" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A54" s="24" t="s">
         <v>1067</v>
       </c>
@@ -10310,7 +10311,7 @@
       </c>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" ht="12.95" customHeight="1">
+    <row r="55" spans="1:21" ht="12.9" customHeight="1">
       <c r="A55" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="12.95" customHeight="1">
+    <row r="56" spans="1:21" ht="12.9" customHeight="1">
       <c r="A56" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10372,10 +10373,10 @@
         <v>255</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F56" s="43" t="s">
         <v>1729</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>1730</v>
       </c>
       <c r="G56" s="131" t="s">
         <v>1485</v>
@@ -10418,7 +10419,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="57" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A57" s="24" t="s">
         <v>1067</v>
       </c>
@@ -10469,7 +10470,7 @@
       </c>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="58" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A58" s="24" t="s">
         <v>1062</v>
       </c>
@@ -10520,7 +10521,7 @@
       </c>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" ht="12.95" customHeight="1">
+    <row r="59" spans="1:21" ht="12.9" customHeight="1">
       <c r="A59" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10572,7 +10573,7 @@
       </c>
       <c r="U59" s="6"/>
     </row>
-    <row r="60" spans="1:21" ht="12.95" customHeight="1">
+    <row r="60" spans="1:21" ht="12.9" customHeight="1">
       <c r="A60" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10624,7 +10625,7 @@
       </c>
       <c r="U60" s="48"/>
     </row>
-    <row r="61" spans="1:21" ht="12.95" customHeight="1">
+    <row r="61" spans="1:21" ht="12.9" customHeight="1">
       <c r="A61" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="12.95" customHeight="1">
+    <row r="62" spans="1:21" ht="12.9" customHeight="1">
       <c r="A62" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="12.95" customHeight="1">
+    <row r="63" spans="1:21" ht="12.9" customHeight="1">
       <c r="A63" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="12.95" customHeight="1">
+    <row r="64" spans="1:21" ht="12.9" customHeight="1">
       <c r="A64" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="65" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A65" s="23" t="s">
         <v>1064</v>
       </c>
@@ -10885,7 +10886,7 @@
       </c>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="66" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A66" s="81" t="s">
         <v>1062</v>
       </c>
@@ -10938,7 +10939,7 @@
       </c>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="67" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A67" s="24" t="s">
         <v>1062</v>
       </c>
@@ -10946,16 +10947,16 @@
         <v>3</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H67" s="65" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="I67" s="66">
         <v>2020</v>
@@ -10976,23 +10977,23 @@
         <v>537</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="P67" s="32"/>
       <c r="Q67" s="29" t="s">
         <v>1056</v>
       </c>
       <c r="R67" s="88" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="S67" s="32"/>
       <c r="T67" s="32" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="U67" s="61"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" ht="12.95" customHeight="1">
+    <row r="68" spans="1:22" ht="12.9" customHeight="1">
       <c r="A68" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11000,16 +11001,16 @@
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H68" s="179" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="I68" s="66">
         <v>2020</v>
@@ -11030,23 +11031,23 @@
         <v>537</v>
       </c>
       <c r="O68" s="24" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="P68" s="32"/>
       <c r="Q68" s="44" t="s">
         <v>1056</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="S68" s="153"/>
       <c r="T68" s="24" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="16"/>
     </row>
-    <row r="69" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="69" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A69" s="81" t="s">
         <v>1065</v>
       </c>
@@ -11099,7 +11100,7 @@
       </c>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="70" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A70" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11153,7 +11154,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" ht="12.95" customHeight="1">
+    <row r="71" spans="1:22" ht="12.9" customHeight="1">
       <c r="A71" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11205,7 +11206,7 @@
       </c>
       <c r="V71" s="119"/>
     </row>
-    <row r="72" spans="1:22" ht="12.95" customHeight="1">
+    <row r="72" spans="1:22" ht="12.9" customHeight="1">
       <c r="A72" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11257,7 +11258,7 @@
       </c>
       <c r="V72" s="119"/>
     </row>
-    <row r="73" spans="1:22" ht="12.95" customHeight="1">
+    <row r="73" spans="1:22" ht="12.9" customHeight="1">
       <c r="A73" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="20" customFormat="1" ht="12.95" customHeight="1">
+    <row r="74" spans="1:22" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A74" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11370,7 +11371,7 @@
       <c r="U74" s="4"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22" ht="12.95" customHeight="1">
+    <row r="75" spans="1:22" ht="12.9" customHeight="1">
       <c r="A75" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11428,7 +11429,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="12.95" customHeight="1">
+    <row r="76" spans="1:22" ht="12.9" customHeight="1">
       <c r="A76" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11480,7 +11481,7 @@
       </c>
       <c r="V76" s="20"/>
     </row>
-    <row r="77" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="77" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A77" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11540,7 +11541,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="78" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A78" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11596,7 +11597,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="79" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A79" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11651,7 +11652,7 @@
       </c>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="80" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A80" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:22" ht="12.95" customHeight="1">
+    <row r="81" spans="1:22" ht="12.9" customHeight="1">
       <c r="A81" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11714,16 +11715,16 @@
         <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H81" s="182" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I81" s="183">
         <v>2020</v>
@@ -11744,22 +11745,22 @@
         <v>537</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="P81" s="24"/>
       <c r="Q81" s="44" t="s">
         <v>1056</v>
       </c>
       <c r="R81" s="8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="S81" s="24"/>
       <c r="T81" s="153" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="U81" s="44"/>
     </row>
-    <row r="82" spans="1:22" ht="12.95" customHeight="1">
+    <row r="82" spans="1:22" ht="12.9" customHeight="1">
       <c r="A82" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11811,7 +11812,7 @@
       </c>
       <c r="V82" s="16"/>
     </row>
-    <row r="83" spans="1:22" ht="12.95" customHeight="1">
+    <row r="83" spans="1:22" ht="12.9" customHeight="1">
       <c r="A83" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11819,16 +11820,16 @@
         <v>3</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H83" s="65" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I83" s="66">
         <v>2020</v>
@@ -11849,22 +11850,22 @@
         <v>537</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="P83" s="32"/>
       <c r="Q83" s="29" t="s">
         <v>1056</v>
       </c>
       <c r="R83" s="88" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="S83" s="32"/>
       <c r="T83" s="32" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="U83" s="61"/>
     </row>
-    <row r="84" spans="1:22" ht="12.95" customHeight="1">
+    <row r="84" spans="1:22" ht="12.9" customHeight="1">
       <c r="A84" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11913,7 +11914,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="85" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A85" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11966,7 +11967,7 @@
       </c>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:22" ht="12.95" customHeight="1">
+    <row r="86" spans="1:22" ht="12.9" customHeight="1">
       <c r="A86" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12016,7 +12017,7 @@
       </c>
       <c r="U86" s="6"/>
     </row>
-    <row r="87" spans="1:22" ht="12.95" customHeight="1">
+    <row r="87" spans="1:22" ht="12.9" customHeight="1">
       <c r="A87" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12067,7 +12068,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="12.95" customHeight="1">
+    <row r="88" spans="1:22" ht="12.9" customHeight="1">
       <c r="A88" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12116,7 +12117,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="12.95" customHeight="1">
+    <row r="89" spans="1:22" ht="12.9" customHeight="1">
       <c r="A89" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12167,7 +12168,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="12.95" customHeight="1">
+    <row r="90" spans="1:22" ht="12.9" customHeight="1">
       <c r="A90" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="12.95" customHeight="1">
+    <row r="91" spans="1:22" ht="12.9" customHeight="1">
       <c r="A91" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12267,7 +12268,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="92" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A92" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12322,7 +12323,7 @@
       </c>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:22" ht="12.95" customHeight="1">
+    <row r="93" spans="1:22" ht="12.9" customHeight="1">
       <c r="A93" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12373,7 +12374,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="12.95" customHeight="1">
+    <row r="94" spans="1:22" ht="12.9" customHeight="1">
       <c r="A94" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12423,7 +12424,7 @@
       </c>
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="1:22" ht="12.95" customHeight="1">
+    <row r="95" spans="1:22" ht="12.9" customHeight="1">
       <c r="A95" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="12.95" customHeight="1">
+    <row r="96" spans="1:22" ht="12.9" customHeight="1">
       <c r="A96" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="12.95" customHeight="1">
+    <row r="97" spans="1:21" ht="12.9" customHeight="1">
       <c r="A97" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="12.95" customHeight="1">
+    <row r="98" spans="1:21" ht="12.9" customHeight="1">
       <c r="A98" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12630,7 +12631,7 @@
       </c>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" ht="12.95" customHeight="1">
+    <row r="99" spans="1:21" ht="12.9" customHeight="1">
       <c r="A99" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="12.95" customHeight="1">
+    <row r="100" spans="1:21" ht="12.9" customHeight="1">
       <c r="A100" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12730,7 +12731,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="12.95" customHeight="1">
+    <row r="101" spans="1:21" ht="12.9" customHeight="1">
       <c r="A101" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12781,7 +12782,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="12.95" customHeight="1">
+    <row r="102" spans="1:21" ht="12.9" customHeight="1">
       <c r="A102" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="12.95" customHeight="1">
+    <row r="103" spans="1:21" ht="12.9" customHeight="1">
       <c r="A103" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>14</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F103" s="173" t="s">
         <v>1715</v>
@@ -12889,7 +12890,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="12.95" customHeight="1">
+    <row r="104" spans="1:21" ht="12.9" customHeight="1">
       <c r="A104" s="23" t="s">
         <v>1067</v>
       </c>
@@ -12942,7 +12943,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="12.95" customHeight="1">
+    <row r="105" spans="1:21" ht="12.9" customHeight="1">
       <c r="A105" s="23" t="s">
         <v>1067</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="12.95" customHeight="1">
+    <row r="106" spans="1:21" ht="12.9" customHeight="1">
       <c r="A106" s="24" t="s">
         <v>1066</v>
       </c>
@@ -13046,7 +13047,7 @@
       </c>
       <c r="U106" s="7"/>
     </row>
-    <row r="107" spans="1:21" ht="12.95" customHeight="1">
+    <row r="107" spans="1:21" ht="12.9" customHeight="1">
       <c r="A107" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="12.95" customHeight="1">
+    <row r="108" spans="1:21" ht="12.9" customHeight="1">
       <c r="A108" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="12.95" customHeight="1">
+    <row r="109" spans="1:21" ht="12.9" customHeight="1">
       <c r="A109" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13211,7 +13212,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="12.95" customHeight="1">
+    <row r="110" spans="1:21" ht="12.9" customHeight="1">
       <c r="A110" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="12.95" customHeight="1">
+    <row r="111" spans="1:21" ht="12.9" customHeight="1">
       <c r="A111" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="12.95" customHeight="1">
+    <row r="112" spans="1:21" ht="12.9" customHeight="1">
       <c r="A112" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="12.95" customHeight="1">
+    <row r="113" spans="1:21" ht="12.9" customHeight="1">
       <c r="A113" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="12.95" customHeight="1">
+    <row r="114" spans="1:21" ht="12.9" customHeight="1">
       <c r="A114" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13484,7 +13485,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="12.95" customHeight="1">
+    <row r="115" spans="1:21" ht="12.9" customHeight="1">
       <c r="A115" s="24" t="s">
         <v>1066</v>
       </c>
@@ -13535,7 +13536,7 @@
       </c>
       <c r="U115" s="85"/>
     </row>
-    <row r="116" spans="1:21" ht="12.95" customHeight="1">
+    <row r="116" spans="1:21" ht="12.9" customHeight="1">
       <c r="A116" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="12.95" customHeight="1">
+    <row r="117" spans="1:21" ht="12.9" customHeight="1">
       <c r="A117" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13637,7 +13638,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="12.95" customHeight="1">
+    <row r="118" spans="1:21" ht="12.9" customHeight="1">
       <c r="A118" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="12.95" customHeight="1">
+    <row r="119" spans="1:21" ht="12.9" customHeight="1">
       <c r="A119" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="12.95" customHeight="1">
+    <row r="120" spans="1:21" ht="12.9" customHeight="1">
       <c r="A120" s="23" t="s">
         <v>1067</v>
       </c>
@@ -13791,7 +13792,7 @@
       </c>
       <c r="U120" s="6"/>
     </row>
-    <row r="121" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="121" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A121" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13846,7 +13847,7 @@
       </c>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="12.95" customHeight="1">
+    <row r="122" spans="1:21" ht="12.9" customHeight="1">
       <c r="A122" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13897,7 +13898,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="12.95" customHeight="1">
+    <row r="123" spans="1:21" ht="12.9" customHeight="1">
       <c r="A123" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="124" spans="1:21" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A124" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14003,7 +14004,7 @@
       </c>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="12.95" customHeight="1">
+    <row r="125" spans="1:21" ht="12.9" customHeight="1">
       <c r="A125" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="12.95" customHeight="1">
+    <row r="126" spans="1:21" ht="12.9" customHeight="1">
       <c r="A126" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="12.95" customHeight="1">
+    <row r="127" spans="1:21" ht="12.9" customHeight="1">
       <c r="A127" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14156,7 +14157,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="12.95" customHeight="1">
+    <row r="128" spans="1:21" ht="12.9" customHeight="1">
       <c r="A128" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="12.95" customHeight="1">
+    <row r="129" spans="1:21" ht="12.9" customHeight="1">
       <c r="A129" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14264,7 +14265,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="12.95" customHeight="1">
+    <row r="130" spans="1:21" ht="12.9" customHeight="1">
       <c r="A130" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="12.95" customHeight="1">
+    <row r="131" spans="1:21" ht="12.9" customHeight="1">
       <c r="A131" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14366,7 +14367,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="12.95" customHeight="1">
+    <row r="132" spans="1:21" ht="12.9" customHeight="1">
       <c r="A132" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14417,7 +14418,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="12.95" customHeight="1">
+    <row r="133" spans="1:21" ht="12.9" customHeight="1">
       <c r="A133" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="12.95" customHeight="1">
+    <row r="134" spans="1:21" ht="12.9" customHeight="1">
       <c r="A134" s="24" t="s">
         <v>1066</v>
       </c>
@@ -14521,7 +14522,7 @@
       </c>
       <c r="U134" s="7"/>
     </row>
-    <row r="135" spans="1:21" ht="12.95" customHeight="1">
+    <row r="135" spans="1:21" ht="12.9" customHeight="1">
       <c r="A135" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="136" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A136" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14623,7 +14624,7 @@
       </c>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" ht="12.95" customHeight="1">
+    <row r="137" spans="1:21" ht="12.9" customHeight="1">
       <c r="A137" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14675,7 +14676,7 @@
       </c>
       <c r="U137" s="6"/>
     </row>
-    <row r="138" spans="1:21" ht="12.95" customHeight="1">
+    <row r="138" spans="1:21" ht="12.9" customHeight="1">
       <c r="A138" s="24" t="s">
         <v>1066</v>
       </c>
@@ -14724,7 +14725,7 @@
       </c>
       <c r="U138" s="73"/>
     </row>
-    <row r="139" spans="1:21" ht="12.95" customHeight="1">
+    <row r="139" spans="1:21" ht="12.9" customHeight="1">
       <c r="A139" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14775,7 +14776,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="12.95" customHeight="1">
+    <row r="140" spans="1:21" ht="12.9" customHeight="1">
       <c r="A140" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14826,7 +14827,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="12.95" customHeight="1">
+    <row r="141" spans="1:21" ht="12.9" customHeight="1">
       <c r="A141" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14877,7 +14878,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="12.95" customHeight="1">
+    <row r="142" spans="1:21" ht="12.9" customHeight="1">
       <c r="A142" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14928,7 +14929,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="12.95" customHeight="1">
+    <row r="143" spans="1:21" ht="12.9" customHeight="1">
       <c r="A143" s="24" t="s">
         <v>1066</v>
       </c>
@@ -14981,7 +14982,7 @@
       </c>
       <c r="U143" s="7"/>
     </row>
-    <row r="144" spans="1:21" ht="12.95" customHeight="1">
+    <row r="144" spans="1:21" ht="12.9" customHeight="1">
       <c r="A144" s="24" t="s">
         <v>1062</v>
       </c>
@@ -14989,16 +14990,16 @@
         <v>3</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H144" s="65" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I144" s="66">
         <v>2020</v>
@@ -15019,22 +15020,22 @@
         <v>537</v>
       </c>
       <c r="O144" s="32" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="P144" s="32"/>
       <c r="Q144" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R144" s="88" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="S144" s="32"/>
       <c r="T144" s="32" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="U144" s="61"/>
     </row>
-    <row r="145" spans="1:22" ht="12.95" customHeight="1">
+    <row r="145" spans="1:22" ht="12.9" customHeight="1">
       <c r="A145" s="23" t="s">
         <v>1062</v>
       </c>
@@ -15084,7 +15085,7 @@
       </c>
       <c r="U145" s="6"/>
     </row>
-    <row r="146" spans="1:22" ht="12.95" customHeight="1">
+    <row r="146" spans="1:22" ht="12.9" customHeight="1">
       <c r="A146" s="23" t="s">
         <v>1062</v>
       </c>
@@ -15135,7 +15136,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="147" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="147" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A147" s="23" t="s">
         <v>1062</v>
       </c>
@@ -15195,7 +15196,7 @@
       <c r="U147" s="9"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="1:22" ht="12.95" customHeight="1">
+    <row r="148" spans="1:22" ht="12.9" customHeight="1">
       <c r="A148" s="24" t="s">
         <v>1062</v>
       </c>
@@ -15203,16 +15204,16 @@
         <v>3</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H148" s="65" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I148" s="66">
         <v>2020</v>
@@ -15233,23 +15234,23 @@
         <v>537</v>
       </c>
       <c r="O148" s="32" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="P148" s="32"/>
       <c r="Q148" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R148" s="88" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="S148" s="32"/>
       <c r="T148" s="32" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="U148" s="61"/>
       <c r="V148" s="97"/>
     </row>
-    <row r="149" spans="1:22" ht="12.95" customHeight="1">
+    <row r="149" spans="1:22" ht="12.9" customHeight="1">
       <c r="A149" s="24" t="s">
         <v>1062</v>
       </c>
@@ -15257,16 +15258,16 @@
         <v>3</v>
       </c>
       <c r="C149" s="84" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D149" s="84"/>
       <c r="E149" s="84"/>
       <c r="F149" s="84"/>
       <c r="G149" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H149" s="61" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I149" s="66">
         <v>2020</v>
@@ -15287,23 +15288,23 @@
         <v>537</v>
       </c>
       <c r="O149" s="32" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="P149" s="32"/>
       <c r="Q149" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R149" s="92" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="S149" s="32"/>
       <c r="T149" s="32" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="U149" s="61"/>
       <c r="V149" s="16"/>
     </row>
-    <row r="150" spans="1:22" s="97" customFormat="1" ht="12.95" customHeight="1">
+    <row r="150" spans="1:22" s="97" customFormat="1" ht="12.9" customHeight="1">
       <c r="A150" s="24" t="s">
         <v>1062</v>
       </c>
@@ -15311,16 +15312,16 @@
         <v>3</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H150" s="65" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I150" s="66">
         <v>2020</v>
@@ -15341,23 +15342,23 @@
         <v>537</v>
       </c>
       <c r="O150" s="32" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="P150" s="32"/>
       <c r="Q150" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R150" s="88" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="S150" s="32"/>
       <c r="T150" s="32" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="U150" s="61"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="1:22" ht="12.95" customHeight="1">
+    <row r="151" spans="1:22" ht="12.9" customHeight="1">
       <c r="A151" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="12.95" customHeight="1">
+    <row r="152" spans="1:22" ht="12.9" customHeight="1">
       <c r="A152" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="12.95" customHeight="1">
+    <row r="153" spans="1:22" ht="12.9" customHeight="1">
       <c r="A153" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="12.95" customHeight="1">
+    <row r="154" spans="1:22" ht="12.9" customHeight="1">
       <c r="A154" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15562,7 +15563,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="12.95" customHeight="1">
+    <row r="155" spans="1:22" ht="12.9" customHeight="1">
       <c r="A155" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15616,7 +15617,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="12.95" customHeight="1">
+    <row r="156" spans="1:22" ht="12.9" customHeight="1">
       <c r="A156" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15667,7 +15668,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="12.95" customHeight="1">
+    <row r="157" spans="1:22" ht="12.9" customHeight="1">
       <c r="A157" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="12.95" customHeight="1">
+    <row r="158" spans="1:22" ht="12.9" customHeight="1">
       <c r="A158" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15769,7 +15770,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="12.95" customHeight="1">
+    <row r="159" spans="1:22" ht="12.9" customHeight="1">
       <c r="A159" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15821,7 +15822,7 @@
       </c>
       <c r="U159" s="83"/>
     </row>
-    <row r="160" spans="1:22" ht="12.95" customHeight="1">
+    <row r="160" spans="1:22" ht="12.9" customHeight="1">
       <c r="A160" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15873,7 +15874,7 @@
       </c>
       <c r="U160" s="83"/>
     </row>
-    <row r="161" spans="1:21" ht="12.95" customHeight="1">
+    <row r="161" spans="1:21" ht="12.9" customHeight="1">
       <c r="A161" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15924,7 +15925,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="162" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="162" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A162" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15979,7 +15980,7 @@
       </c>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="1:21" ht="12.95" customHeight="1">
+    <row r="163" spans="1:21" ht="12.9" customHeight="1">
       <c r="A163" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16030,7 +16031,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="12.95" customHeight="1">
+    <row r="164" spans="1:21" ht="12.9" customHeight="1">
       <c r="A164" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16041,10 +16042,10 @@
         <v>233</v>
       </c>
       <c r="E164" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F164" s="43" t="s">
         <v>1731</v>
-      </c>
-      <c r="F164" s="43" t="s">
-        <v>1732</v>
       </c>
       <c r="G164" s="130" t="s">
         <v>1569</v>
@@ -16089,7 +16090,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="165" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="165" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A165" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16144,7 +16145,7 @@
       </c>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="166" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A166" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16199,7 +16200,7 @@
       </c>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="1:21" ht="12.95" customHeight="1">
+    <row r="167" spans="1:21" ht="12.9" customHeight="1">
       <c r="A167" s="81" t="s">
         <v>1065</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="12.95" customHeight="1">
+    <row r="168" spans="1:21" ht="12.9" customHeight="1">
       <c r="A168" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16302,7 +16303,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="12.95" customHeight="1">
+    <row r="169" spans="1:21" ht="12.9" customHeight="1">
       <c r="A169" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16353,7 +16354,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="12.95" customHeight="1">
+    <row r="170" spans="1:21" ht="12.9" customHeight="1">
       <c r="A170" s="23" t="s">
         <v>1062</v>
       </c>
@@ -16404,7 +16405,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="12.95" customHeight="1">
+    <row r="171" spans="1:21" ht="12.9" customHeight="1">
       <c r="A171" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16455,7 +16456,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="12.95" customHeight="1">
+    <row r="172" spans="1:21" ht="12.9" customHeight="1">
       <c r="A172" s="24" t="s">
         <v>1065</v>
       </c>
@@ -16463,22 +16464,22 @@
         <v>3</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H172" s="65" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="I172" s="66">
         <v>2020</v>
       </c>
       <c r="J172" s="61" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="K172" s="32">
         <v>2.8</v>
@@ -16493,22 +16494,22 @@
         <v>164</v>
       </c>
       <c r="O172" s="32" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="P172" s="32"/>
       <c r="Q172" s="29" t="s">
         <v>984</v>
       </c>
       <c r="R172" s="8" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="S172" s="115"/>
       <c r="T172" s="32" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="U172" s="29"/>
     </row>
-    <row r="173" spans="1:21" ht="12.95" customHeight="1">
+    <row r="173" spans="1:21" ht="12.9" customHeight="1">
       <c r="A173" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16557,7 +16558,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="12.95" customHeight="1">
+    <row r="174" spans="1:21" ht="12.9" customHeight="1">
       <c r="A174" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16608,7 +16609,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="12.95" customHeight="1">
+    <row r="175" spans="1:21" ht="12.9" customHeight="1">
       <c r="A175" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16659,7 +16660,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="12.95" customHeight="1">
+    <row r="176" spans="1:21" ht="12.9" customHeight="1">
       <c r="A176" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16708,7 +16709,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="177" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="177" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A177" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16762,7 +16763,7 @@
       <c r="U177" s="4"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="1:22" ht="12.95" customHeight="1">
+    <row r="178" spans="1:22" ht="12.9" customHeight="1">
       <c r="A178" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16814,7 +16815,7 @@
       </c>
       <c r="V178" s="16"/>
     </row>
-    <row r="179" spans="1:22" ht="12.95" customHeight="1">
+    <row r="179" spans="1:22" ht="12.9" customHeight="1">
       <c r="A179" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="12.95" customHeight="1">
+    <row r="180" spans="1:22" ht="12.9" customHeight="1">
       <c r="A180" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16915,7 +16916,7 @@
       </c>
       <c r="U180" s="6"/>
     </row>
-    <row r="181" spans="1:22" ht="12.95" customHeight="1">
+    <row r="181" spans="1:22" ht="12.9" customHeight="1">
       <c r="A181" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16964,7 +16965,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="12.95" customHeight="1">
+    <row r="182" spans="1:22" ht="12.9" customHeight="1">
       <c r="A182" s="24" t="s">
         <v>1065</v>
       </c>
@@ -17017,7 +17018,7 @@
       </c>
       <c r="U182" s="7"/>
     </row>
-    <row r="183" spans="1:22" ht="12.95" customHeight="1">
+    <row r="183" spans="1:22" ht="12.9" customHeight="1">
       <c r="A183" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17068,7 +17069,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="12.95" customHeight="1">
+    <row r="184" spans="1:22" ht="12.9" customHeight="1">
       <c r="A184" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17119,7 +17120,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="12.95" customHeight="1">
+    <row r="185" spans="1:22" ht="12.9" customHeight="1">
       <c r="A185" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17170,7 +17171,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="12.95" customHeight="1">
+    <row r="186" spans="1:22" ht="12.9" customHeight="1">
       <c r="A186" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17221,7 +17222,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="12.95" customHeight="1">
+    <row r="187" spans="1:22" ht="12.9" customHeight="1">
       <c r="A187" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="12.95" customHeight="1">
+    <row r="188" spans="1:22" ht="12.9" customHeight="1">
       <c r="A188" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17321,7 +17322,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="12.95" customHeight="1">
+    <row r="189" spans="1:22" ht="12.9" customHeight="1">
       <c r="A189" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17370,7 +17371,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="12.95" customHeight="1">
+    <row r="190" spans="1:22" ht="12.9" customHeight="1">
       <c r="A190" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17419,7 +17420,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="12.95" customHeight="1">
+    <row r="191" spans="1:22" ht="12.9" customHeight="1">
       <c r="A191" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="12.95" customHeight="1">
+    <row r="192" spans="1:22" ht="12.9" customHeight="1">
       <c r="A192" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17520,7 +17521,7 @@
       </c>
       <c r="U192" s="6"/>
     </row>
-    <row r="193" spans="1:21" ht="12.95" customHeight="1">
+    <row r="193" spans="1:21" ht="12.9" customHeight="1">
       <c r="A193" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17571,7 +17572,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="12.95" customHeight="1">
+    <row r="194" spans="1:21" ht="12.9" customHeight="1">
       <c r="A194" s="23" t="s">
         <v>1062</v>
       </c>
@@ -17628,7 +17629,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="12.95" customHeight="1">
+    <row r="195" spans="1:21" ht="12.9" customHeight="1">
       <c r="A195" s="23" t="s">
         <v>1062</v>
       </c>
@@ -17679,7 +17680,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="196" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="196" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A196" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17734,7 +17735,7 @@
       </c>
       <c r="U196" s="6"/>
     </row>
-    <row r="197" spans="1:21" ht="12.95" customHeight="1">
+    <row r="197" spans="1:21" ht="12.9" customHeight="1">
       <c r="A197" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17785,7 +17786,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="198" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="198" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A198" s="26" t="s">
         <v>1066</v>
       </c>
@@ -17842,7 +17843,7 @@
       </c>
       <c r="U198" s="9"/>
     </row>
-    <row r="199" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="199" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A199" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17901,7 +17902,7 @@
       </c>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="200" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A200" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17956,7 +17957,7 @@
       </c>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="1:21" ht="12.95" customHeight="1">
+    <row r="201" spans="1:21" ht="12.9" customHeight="1">
       <c r="A201" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="12.95" customHeight="1">
+    <row r="202" spans="1:21" ht="12.9" customHeight="1">
       <c r="A202" s="24" t="s">
         <v>1066</v>
       </c>
@@ -18056,7 +18057,7 @@
       </c>
       <c r="U202" s="7"/>
     </row>
-    <row r="203" spans="1:21" ht="12.95" customHeight="1">
+    <row r="203" spans="1:21" ht="12.9" customHeight="1">
       <c r="A203" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18107,7 +18108,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="12.95" customHeight="1">
+    <row r="204" spans="1:21" ht="12.9" customHeight="1">
       <c r="A204" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18158,7 +18159,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="12.95" customHeight="1">
+    <row r="205" spans="1:21" ht="12.9" customHeight="1">
       <c r="A205" s="23" t="s">
         <v>1062</v>
       </c>
@@ -18209,7 +18210,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="12.95" customHeight="1">
+    <row r="206" spans="1:21" ht="12.9" customHeight="1">
       <c r="A206" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18260,7 +18261,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="207" spans="1:21" s="128" customFormat="1" ht="12.95" customHeight="1">
+    <row r="207" spans="1:21" s="128" customFormat="1" ht="12.9" customHeight="1">
       <c r="A207" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18315,7 +18316,7 @@
       </c>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="1:21" s="98" customFormat="1" ht="12.95" customHeight="1">
+    <row r="208" spans="1:21" s="98" customFormat="1" ht="12.9" customHeight="1">
       <c r="A208" s="23" t="s">
         <v>1062</v>
       </c>
@@ -18368,7 +18369,7 @@
       </c>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="209" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A209" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18423,7 +18424,7 @@
       </c>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="1:21" ht="12.95" customHeight="1">
+    <row r="210" spans="1:21" ht="12.9" customHeight="1">
       <c r="A210" s="24" t="s">
         <v>1066</v>
       </c>
@@ -18474,7 +18475,7 @@
       </c>
       <c r="U210" s="7"/>
     </row>
-    <row r="211" spans="1:21" ht="12.95" customHeight="1">
+    <row r="211" spans="1:21" ht="12.9" customHeight="1">
       <c r="A211" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18525,7 +18526,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="12.95" customHeight="1">
+    <row r="212" spans="1:21" ht="12.9" customHeight="1">
       <c r="A212" s="24" t="s">
         <v>1066</v>
       </c>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="U212" s="77"/>
     </row>
-    <row r="213" spans="1:21" ht="12.95" customHeight="1">
+    <row r="213" spans="1:21" ht="12.9" customHeight="1">
       <c r="A213" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="214" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="214" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A214" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18684,7 +18685,7 @@
       </c>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="215" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A215" s="23" t="s">
         <v>1062</v>
       </c>
@@ -18739,7 +18740,7 @@
       </c>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="1:21" ht="12.95" customHeight="1">
+    <row r="216" spans="1:21" ht="12.9" customHeight="1">
       <c r="A216" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18790,7 +18791,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="12.95" customHeight="1">
+    <row r="217" spans="1:21" ht="12.9" customHeight="1">
       <c r="A217" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18841,7 +18842,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="12.95" customHeight="1">
+    <row r="218" spans="1:21" ht="12.9" customHeight="1">
       <c r="A218" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18892,7 +18893,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="12.95" customHeight="1">
+    <row r="219" spans="1:21" ht="12.9" customHeight="1">
       <c r="A219" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18944,7 +18945,7 @@
       </c>
       <c r="U219" s="6"/>
     </row>
-    <row r="220" spans="1:21" ht="12.95" customHeight="1">
+    <row r="220" spans="1:21" ht="12.9" customHeight="1">
       <c r="A220" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18995,13 +18996,13 @@
         <v>822</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="12.95" customHeight="1">
+    <row r="221" spans="1:21" ht="12.9" customHeight="1">
       <c r="A221" s="80"/>
       <c r="B221" s="45"/>
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
       <c r="E221" s="12" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F221" s="142" t="s">
         <v>1608</v>
@@ -19036,7 +19037,7 @@
       <c r="T221" s="39"/>
       <c r="U221" s="11"/>
     </row>
-    <row r="222" spans="1:21" ht="12.95" customHeight="1">
+    <row r="222" spans="1:21" ht="12.9" customHeight="1">
       <c r="A222" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19088,7 +19089,7 @@
       </c>
       <c r="U222" s="6"/>
     </row>
-    <row r="223" spans="1:21" ht="12.95" customHeight="1">
+    <row r="223" spans="1:21" ht="12.9" customHeight="1">
       <c r="A223" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19139,7 +19140,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="12.95" customHeight="1">
+    <row r="224" spans="1:21" ht="12.9" customHeight="1">
       <c r="A224" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19190,7 +19191,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="12.95" customHeight="1">
+    <row r="225" spans="1:21" ht="12.9" customHeight="1">
       <c r="A225" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19241,7 +19242,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="12.95" customHeight="1">
+    <row r="226" spans="1:21" ht="12.9" customHeight="1">
       <c r="A226" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19292,7 +19293,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="12.95" customHeight="1">
+    <row r="227" spans="1:21" ht="12.9" customHeight="1">
       <c r="A227" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19343,7 +19344,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="12.95" customHeight="1">
+    <row r="228" spans="1:21" ht="12.9" customHeight="1">
       <c r="A228" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19394,7 +19395,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="12.95" customHeight="1">
+    <row r="229" spans="1:21" ht="12.9" customHeight="1">
       <c r="A229" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19445,7 +19446,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="230" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="230" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A230" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19500,7 +19501,7 @@
       </c>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="1:21" ht="12.95" customHeight="1">
+    <row r="231" spans="1:21" ht="12.9" customHeight="1">
       <c r="A231" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19552,7 +19553,7 @@
       </c>
       <c r="U231" s="6"/>
     </row>
-    <row r="232" spans="1:21" ht="12.95" customHeight="1">
+    <row r="232" spans="1:21" ht="12.9" customHeight="1">
       <c r="A232" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19603,7 +19604,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="12.95" customHeight="1">
+    <row r="233" spans="1:21" ht="12.9" customHeight="1">
       <c r="A233" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19655,7 +19656,7 @@
       </c>
       <c r="U233" s="9"/>
     </row>
-    <row r="234" spans="1:21" ht="12.95" customHeight="1">
+    <row r="234" spans="1:21" ht="12.9" customHeight="1">
       <c r="A234" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19707,7 +19708,7 @@
       </c>
       <c r="U234" s="9"/>
     </row>
-    <row r="235" spans="1:21" ht="12.95" customHeight="1">
+    <row r="235" spans="1:21" ht="12.9" customHeight="1">
       <c r="A235" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19758,7 +19759,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="236" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="236" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A236" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19813,7 +19814,7 @@
       </c>
       <c r="U236" s="9"/>
     </row>
-    <row r="237" spans="1:21" ht="12.95" customHeight="1">
+    <row r="237" spans="1:21" ht="12.9" customHeight="1">
       <c r="A237" s="81" t="s">
         <v>1065</v>
       </c>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="U237" s="6"/>
     </row>
-    <row r="238" spans="1:21" ht="12.95" customHeight="1">
+    <row r="238" spans="1:21" ht="12.9" customHeight="1">
       <c r="A238" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="12.95" customHeight="1">
+    <row r="239" spans="1:21" ht="12.9" customHeight="1">
       <c r="A239" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="12.95" customHeight="1">
+    <row r="240" spans="1:21" ht="12.9" customHeight="1">
       <c r="A240" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="12.95" customHeight="1">
+    <row r="241" spans="1:22" ht="12.9" customHeight="1">
       <c r="A241" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20073,7 +20074,7 @@
       </c>
       <c r="U241" s="6"/>
     </row>
-    <row r="242" spans="1:22" ht="12.95" customHeight="1">
+    <row r="242" spans="1:22" ht="12.9" customHeight="1">
       <c r="A242" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20124,7 +20125,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="12.95" customHeight="1">
+    <row r="243" spans="1:22" ht="12.9" customHeight="1">
       <c r="A243" s="181" t="s">
         <v>1062</v>
       </c>
@@ -20132,16 +20133,16 @@
         <v>3</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
       <c r="G243" s="149" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H243" s="65" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I243" s="66">
         <v>2020</v>
@@ -20162,22 +20163,22 @@
         <v>537</v>
       </c>
       <c r="O243" s="32" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="P243" s="32"/>
       <c r="Q243" s="29" t="s">
         <v>1059</v>
       </c>
       <c r="R243" s="88" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="S243" s="32"/>
       <c r="T243" s="32" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="U243" s="29"/>
     </row>
-    <row r="244" spans="1:22" ht="12.95" customHeight="1">
+    <row r="244" spans="1:22" ht="12.9" customHeight="1">
       <c r="A244" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20229,7 +20230,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="245" spans="1:22" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="245" spans="1:22" s="2" customFormat="1" ht="12.9" customHeight="1">
       <c r="A245" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20287,7 +20288,7 @@
       <c r="U245" s="4"/>
       <c r="V245" s="17"/>
     </row>
-    <row r="246" spans="1:22" ht="12.95" customHeight="1">
+    <row r="246" spans="1:22" ht="12.9" customHeight="1">
       <c r="A246" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20339,7 +20340,7 @@
       </c>
       <c r="V246" s="2"/>
     </row>
-    <row r="247" spans="1:22" ht="12.95" customHeight="1">
+    <row r="247" spans="1:22" ht="12.9" customHeight="1">
       <c r="A247" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20388,7 +20389,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="12.95" customHeight="1">
+    <row r="248" spans="1:22" ht="12.9" customHeight="1">
       <c r="A248" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20439,7 +20440,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="12.95" customHeight="1">
+    <row r="249" spans="1:22" ht="12.9" customHeight="1">
       <c r="A249" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20488,7 +20489,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="12.95" customHeight="1">
+    <row r="250" spans="1:22" ht="12.9" customHeight="1">
       <c r="A250" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20539,7 +20540,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="12.95" customHeight="1">
+    <row r="251" spans="1:22" ht="12.9" customHeight="1">
       <c r="A251" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20590,7 +20591,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="252" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
+    <row r="252" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
       <c r="A252" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20643,7 +20644,7 @@
       </c>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="1:22" ht="12.95" customHeight="1">
+    <row r="253" spans="1:22" ht="12.9" customHeight="1">
       <c r="A253" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20694,7 +20695,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="12.95" customHeight="1">
+    <row r="254" spans="1:22" ht="12.9" customHeight="1">
       <c r="A254" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20745,7 +20746,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="12.95" customHeight="1">
+    <row r="255" spans="1:22" ht="12.9" customHeight="1">
       <c r="A255" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20796,7 +20797,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="12.95" customHeight="1">
+    <row r="256" spans="1:22" ht="12.9" customHeight="1">
       <c r="A256" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20853,7 +20854,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="12.95" customHeight="1">
+    <row r="257" spans="1:21" ht="12.9" customHeight="1">
       <c r="A257" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20904,7 +20905,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="12.95" customHeight="1">
+    <row r="258" spans="1:21" ht="12.9" customHeight="1">
       <c r="A258" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20955,7 +20956,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="12.95" customHeight="1">
+    <row r="259" spans="1:21" ht="12.9" customHeight="1">
       <c r="A259" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="260" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="260" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A260" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21061,7 +21062,7 @@
       </c>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="1:21" ht="12.95" customHeight="1">
+    <row r="261" spans="1:21" ht="12.9" customHeight="1">
       <c r="A261" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21112,7 +21113,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="12.95" customHeight="1">
+    <row r="262" spans="1:21" ht="12.9" customHeight="1">
       <c r="A262" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21164,7 +21165,7 @@
       </c>
       <c r="U262" s="6"/>
     </row>
-    <row r="263" spans="1:21" ht="12.95" customHeight="1">
+    <row r="263" spans="1:21" ht="12.9" customHeight="1">
       <c r="A263" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21215,7 +21216,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="12.95" customHeight="1">
+    <row r="264" spans="1:21" ht="12.9" customHeight="1">
       <c r="A264" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21266,7 +21267,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="265" spans="1:21" ht="12.95" customHeight="1">
+    <row r="265" spans="1:21" ht="12.9" customHeight="1">
       <c r="A265" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21317,7 +21318,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="12.95" customHeight="1">
+    <row r="266" spans="1:21" ht="12.9" customHeight="1">
       <c r="A266" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21368,7 +21369,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="12.95" customHeight="1">
+    <row r="267" spans="1:21" ht="12.9" customHeight="1">
       <c r="A267" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21419,7 +21420,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="12.95" customHeight="1">
+    <row r="268" spans="1:21" ht="12.9" customHeight="1">
       <c r="A268" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21470,7 +21471,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="12.95" customHeight="1">
+    <row r="269" spans="1:21" ht="12.9" customHeight="1">
       <c r="A269" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21521,7 +21522,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="270" spans="1:21" ht="12.95" customHeight="1">
+    <row r="270" spans="1:21" ht="12.9" customHeight="1">
       <c r="A270" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21572,7 +21573,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="271" spans="1:21" ht="12.95" customHeight="1">
+    <row r="271" spans="1:21" ht="12.9" customHeight="1">
       <c r="A271" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21623,15 +21624,15 @@
         <v>685</v>
       </c>
     </row>
-    <row r="272" spans="1:21" ht="12.95" customHeight="1">
+    <row r="272" spans="1:21" ht="12.9" customHeight="1">
       <c r="A272" s="23" t="s">
         <v>1062</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F272" s="162" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G272" s="162"/>
       <c r="H272" s="27"/>
@@ -21642,26 +21643,26 @@
       <c r="K272" s="30"/>
       <c r="L272" s="26"/>
       <c r="M272" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="N272" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O272" s="23" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="P272" s="26"/>
       <c r="Q272" s="28" t="s">
+        <v>1735</v>
+      </c>
+      <c r="R272" s="87" t="s">
         <v>1736</v>
-      </c>
-      <c r="R272" s="87" t="s">
-        <v>1737</v>
       </c>
       <c r="S272" s="121"/>
       <c r="T272" s="26"/>
       <c r="U272" s="47"/>
     </row>
-    <row r="273" spans="1:22" s="180" customFormat="1" ht="12.95" customHeight="1">
+    <row r="273" spans="1:22" s="180" customFormat="1" ht="12.9" customHeight="1">
       <c r="A273" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21669,10 +21670,10 @@
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F273" s="162" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G273" s="162"/>
       <c r="H273" s="27"/>
@@ -21683,26 +21684,26 @@
       <c r="K273" s="30"/>
       <c r="L273" s="26"/>
       <c r="M273" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="N273" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O273" s="23" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="P273" s="26"/>
       <c r="Q273" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="R273" s="87" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="S273" s="121"/>
       <c r="T273" s="26"/>
       <c r="U273" s="47"/>
     </row>
-    <row r="274" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="274" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A274" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21710,10 +21711,10 @@
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F274" s="162" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G274" s="162"/>
       <c r="H274" s="27"/>
@@ -21724,26 +21725,26 @@
       <c r="K274" s="30"/>
       <c r="L274" s="26"/>
       <c r="M274" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="N274" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O274" s="23" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="P274" s="26"/>
       <c r="Q274" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="R274" s="87" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="S274" s="121"/>
       <c r="T274" s="26"/>
       <c r="U274" s="47"/>
     </row>
-    <row r="275" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="275" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A275" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21751,10 +21752,10 @@
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F275" s="162" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G275" s="162"/>
       <c r="H275" s="27"/>
@@ -21765,27 +21766,27 @@
       <c r="K275" s="30"/>
       <c r="L275" s="26"/>
       <c r="M275" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="N275" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O275" s="23" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="P275" s="26"/>
       <c r="Q275" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="R275" s="87" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="S275" s="178"/>
       <c r="T275" s="166"/>
       <c r="U275" s="47"/>
       <c r="V275" s="61"/>
     </row>
-    <row r="276" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="276" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A276" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21793,10 +21794,10 @@
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F276" s="162" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G276" s="162"/>
       <c r="H276" s="27"/>
@@ -21807,27 +21808,27 @@
       <c r="K276" s="30"/>
       <c r="L276" s="26"/>
       <c r="M276" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="N276" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O276" s="23" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="P276" s="26"/>
       <c r="Q276" s="28" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="R276" s="87" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="S276" s="178"/>
       <c r="T276" s="166"/>
       <c r="U276" s="47"/>
       <c r="V276" s="61"/>
     </row>
-    <row r="277" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="277" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A277" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21835,10 +21836,10 @@
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F277" s="43" t="s">
         <v>1794</v>
-      </c>
-      <c r="F277" s="43" t="s">
-        <v>1795</v>
       </c>
       <c r="G277" s="131"/>
       <c r="H277" s="177"/>
@@ -21849,27 +21850,27 @@
       <c r="K277" s="30"/>
       <c r="L277" s="26"/>
       <c r="M277" s="28" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="N277" s="26" t="s">
         <v>537</v>
       </c>
       <c r="O277" s="23" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="P277" s="26"/>
       <c r="Q277" s="28" t="s">
+        <v>1795</v>
+      </c>
+      <c r="R277" s="87" t="s">
         <v>1796</v>
-      </c>
-      <c r="R277" s="87" t="s">
-        <v>1797</v>
       </c>
       <c r="S277" s="121"/>
       <c r="T277" s="26"/>
       <c r="U277" s="4"/>
       <c r="V277" s="61"/>
     </row>
-    <row r="278" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="278" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A278" s="23"/>
       <c r="B278" s="25"/>
       <c r="C278" s="5"/>
@@ -21893,7 +21894,7 @@
       <c r="U278" s="9"/>
       <c r="V278" s="61"/>
     </row>
-    <row r="279" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="279" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A279" s="23"/>
       <c r="B279" s="25"/>
       <c r="C279" s="5"/>
@@ -21917,7 +21918,7 @@
       <c r="U279" s="9"/>
       <c r="V279" s="61"/>
     </row>
-    <row r="280" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="280" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A280" s="23"/>
       <c r="B280" s="25"/>
       <c r="C280" s="5"/>
@@ -21941,7 +21942,7 @@
       <c r="U280" s="9"/>
       <c r="V280" s="61"/>
     </row>
-    <row r="281" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="281" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A281" s="23"/>
       <c r="B281" s="25"/>
       <c r="C281" s="5"/>
@@ -21965,7 +21966,7 @@
       <c r="U281" s="9"/>
       <c r="V281" s="61"/>
     </row>
-    <row r="282" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
+    <row r="282" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
       <c r="A282" s="23"/>
       <c r="B282" s="25"/>
       <c r="C282" s="5"/>
@@ -21989,7 +21990,7 @@
       <c r="U282" s="9"/>
       <c r="V282" s="61"/>
     </row>
-    <row r="283" spans="1:22" ht="12.95" customHeight="1">
+    <row r="283" spans="1:22" ht="12.9" customHeight="1">
       <c r="A283" s="81"/>
       <c r="B283" s="47"/>
       <c r="C283" s="165"/>
@@ -22013,7 +22014,7 @@
       <c r="U283" s="9"/>
       <c r="V283" s="9"/>
     </row>
-    <row r="284" spans="1:22" ht="12.95" customHeight="1">
+    <row r="284" spans="1:22" ht="12.9" customHeight="1">
       <c r="A284" s="81"/>
       <c r="B284" s="47"/>
       <c r="C284" s="165"/>
@@ -22036,7 +22037,7 @@
       <c r="T284" s="81"/>
       <c r="U284" s="15"/>
     </row>
-    <row r="285" spans="1:22" ht="12.95" customHeight="1">
+    <row r="285" spans="1:22" ht="12.9" customHeight="1">
       <c r="A285" s="161"/>
       <c r="B285" s="47"/>
       <c r="C285" s="10"/>
@@ -22059,7 +22060,7 @@
       <c r="T285" s="161"/>
       <c r="U285" s="47"/>
     </row>
-    <row r="286" spans="1:22" ht="12.95" customHeight="1">
+    <row r="286" spans="1:22" ht="12.9" customHeight="1">
       <c r="A286" s="161"/>
       <c r="B286" s="47"/>
       <c r="C286" s="10"/>
@@ -22082,7 +22083,7 @@
       <c r="T286" s="161"/>
       <c r="U286" s="47"/>
     </row>
-    <row r="287" spans="1:22" ht="12.95" customHeight="1">
+    <row r="287" spans="1:22" ht="12.9" customHeight="1">
       <c r="A287" s="161"/>
       <c r="B287" s="47"/>
       <c r="C287" s="10"/>
@@ -22105,7 +22106,7 @@
       <c r="T287" s="161"/>
       <c r="U287" s="47"/>
     </row>
-    <row r="288" spans="1:22" ht="12.95" customHeight="1">
+    <row r="288" spans="1:22" ht="12.9" customHeight="1">
       <c r="A288" s="161"/>
       <c r="B288" s="47"/>
       <c r="C288" s="10"/>
@@ -22128,7 +22129,7 @@
       <c r="T288" s="161"/>
       <c r="U288" s="47"/>
     </row>
-    <row r="289" spans="1:21" ht="12.95" customHeight="1">
+    <row r="289" spans="1:21" ht="12.9" customHeight="1">
       <c r="A289" s="81"/>
       <c r="B289" s="47"/>
       <c r="C289" s="165"/>
@@ -22151,7 +22152,7 @@
       <c r="T289" s="81"/>
       <c r="U289" s="15"/>
     </row>
-    <row r="290" spans="1:21" ht="12.95" customHeight="1">
+    <row r="290" spans="1:21" ht="12.9" customHeight="1">
       <c r="A290" s="81"/>
       <c r="B290" s="47"/>
       <c r="C290" s="165"/>
@@ -22174,7 +22175,7 @@
       <c r="T290" s="81"/>
       <c r="U290" s="15"/>
     </row>
-    <row r="291" spans="1:21" ht="12.95" customHeight="1">
+    <row r="291" spans="1:21" ht="12.9" customHeight="1">
       <c r="A291" s="161"/>
       <c r="B291" s="47"/>
       <c r="C291" s="10"/>
@@ -22197,7 +22198,7 @@
       <c r="T291" s="81"/>
       <c r="U291" s="47"/>
     </row>
-    <row r="292" spans="1:21" ht="12.95" customHeight="1">
+    <row r="292" spans="1:21" ht="12.9" customHeight="1">
       <c r="A292" s="81"/>
       <c r="B292" s="47"/>
       <c r="C292" s="165"/>
@@ -22220,7 +22221,7 @@
       <c r="T292" s="81"/>
       <c r="U292" s="15"/>
     </row>
-    <row r="293" spans="1:21" ht="12.95" customHeight="1">
+    <row r="293" spans="1:21" ht="12.9" customHeight="1">
       <c r="A293" s="81"/>
       <c r="B293" s="47"/>
       <c r="C293" s="10"/>
@@ -22242,7 +22243,7 @@
       <c r="S293" s="42"/>
       <c r="T293" s="81"/>
     </row>
-    <row r="294" spans="1:21" ht="12.95" customHeight="1">
+    <row r="294" spans="1:21" ht="12.9" customHeight="1">
       <c r="A294" s="81"/>
       <c r="B294" s="47"/>
       <c r="C294" s="165"/>
@@ -22265,7 +22266,7 @@
       <c r="T294" s="81"/>
       <c r="U294" s="15"/>
     </row>
-    <row r="295" spans="1:21" ht="12.95" customHeight="1">
+    <row r="295" spans="1:21" ht="12.9" customHeight="1">
       <c r="A295" s="81"/>
       <c r="B295" s="47"/>
       <c r="C295" s="10"/>
@@ -22287,7 +22288,7 @@
       <c r="S295" s="42"/>
       <c r="T295" s="81"/>
     </row>
-    <row r="296" spans="1:21" s="21" customFormat="1" ht="12.95" customHeight="1">
+    <row r="296" spans="1:21" s="21" customFormat="1" ht="12.9" customHeight="1">
       <c r="A296" s="81"/>
       <c r="B296" s="47"/>
       <c r="C296" s="10"/>
@@ -22310,7 +22311,7 @@
       <c r="T296" s="81"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
+    <row r="297" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
       <c r="A297" s="81"/>
       <c r="B297" s="47"/>
       <c r="C297" s="10"/>
@@ -22333,7 +22334,7 @@
       <c r="T297" s="81"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="1:21" ht="12.95" customHeight="1">
+    <row r="298" spans="1:21" ht="12.9" customHeight="1">
       <c r="A298" s="81"/>
       <c r="B298" s="47"/>
       <c r="C298" s="165"/>
@@ -22356,7 +22357,7 @@
       <c r="T298" s="81"/>
       <c r="U298" s="15"/>
     </row>
-    <row r="299" spans="1:21" ht="12.95" customHeight="1">
+    <row r="299" spans="1:21" ht="12.9" customHeight="1">
       <c r="A299" s="81"/>
       <c r="B299" s="47"/>
       <c r="C299" s="10"/>
@@ -22378,7 +22379,7 @@
       <c r="S299" s="42"/>
       <c r="T299" s="42"/>
     </row>
-    <row r="300" spans="1:21" ht="12.95" customHeight="1">
+    <row r="300" spans="1:21" ht="12.9" customHeight="1">
       <c r="A300" s="81"/>
       <c r="B300" s="47"/>
       <c r="C300" s="10"/>
@@ -22400,7 +22401,7 @@
       <c r="S300" s="42"/>
       <c r="T300" s="42"/>
     </row>
-    <row r="301" spans="1:21" ht="12.95" customHeight="1">
+    <row r="301" spans="1:21" ht="12.9" customHeight="1">
       <c r="A301" s="81"/>
       <c r="B301" s="47"/>
       <c r="C301" s="10"/>
@@ -22422,7 +22423,7 @@
       <c r="S301" s="42"/>
       <c r="T301" s="42"/>
     </row>
-    <row r="302" spans="1:21" ht="12.95" customHeight="1">
+    <row r="302" spans="1:21" ht="12.9" customHeight="1">
       <c r="A302" s="81"/>
       <c r="B302" s="47"/>
       <c r="C302" s="10"/>
@@ -22444,7 +22445,7 @@
       <c r="S302" s="42"/>
       <c r="T302" s="42"/>
     </row>
-    <row r="303" spans="1:21" ht="12.95" customHeight="1">
+    <row r="303" spans="1:21" ht="12.9" customHeight="1">
       <c r="A303" s="81"/>
       <c r="B303" s="47"/>
       <c r="C303" s="10"/>
@@ -22466,7 +22467,7 @@
       <c r="S303" s="42"/>
       <c r="T303" s="42"/>
     </row>
-    <row r="304" spans="1:21" ht="12.95" customHeight="1">
+    <row r="304" spans="1:21" ht="12.9" customHeight="1">
       <c r="A304" s="81"/>
       <c r="B304" s="47"/>
       <c r="C304" s="10"/>
@@ -22488,7 +22489,7 @@
       <c r="S304" s="42"/>
       <c r="T304" s="42"/>
     </row>
-    <row r="305" spans="1:21" ht="12.95" customHeight="1">
+    <row r="305" spans="1:21" ht="12.9" customHeight="1">
       <c r="A305" s="81"/>
       <c r="B305" s="47"/>
       <c r="C305" s="10"/>
@@ -22510,7 +22511,7 @@
       <c r="S305" s="42"/>
       <c r="T305" s="42"/>
     </row>
-    <row r="306" spans="1:21" ht="12.95" customHeight="1">
+    <row r="306" spans="1:21" ht="12.9" customHeight="1">
       <c r="A306" s="81"/>
       <c r="B306" s="47"/>
       <c r="C306" s="10"/>
@@ -22532,7 +22533,7 @@
       <c r="S306" s="42"/>
       <c r="T306" s="42"/>
     </row>
-    <row r="307" spans="1:21" ht="12.95" customHeight="1">
+    <row r="307" spans="1:21" ht="12.9" customHeight="1">
       <c r="A307" s="81"/>
       <c r="B307" s="47"/>
       <c r="C307" s="10"/>
@@ -22554,7 +22555,7 @@
       <c r="S307" s="42"/>
       <c r="T307" s="42"/>
     </row>
-    <row r="308" spans="1:21" ht="12.95" customHeight="1">
+    <row r="308" spans="1:21" ht="12.9" customHeight="1">
       <c r="A308" s="81"/>
       <c r="B308" s="47"/>
       <c r="C308" s="10"/>
@@ -22576,7 +22577,7 @@
       <c r="S308" s="42"/>
       <c r="T308" s="42"/>
     </row>
-    <row r="309" spans="1:21" ht="12.95" customHeight="1">
+    <row r="309" spans="1:21" ht="12.9" customHeight="1">
       <c r="A309" s="81"/>
       <c r="B309" s="47"/>
       <c r="C309" s="10"/>
@@ -22598,7 +22599,7 @@
       <c r="S309" s="164"/>
       <c r="T309" s="42"/>
     </row>
-    <row r="310" spans="1:21" ht="12.95" customHeight="1">
+    <row r="310" spans="1:21" ht="12.9" customHeight="1">
       <c r="A310" s="81"/>
       <c r="B310" s="47"/>
       <c r="C310" s="10"/>
@@ -22620,7 +22621,7 @@
       <c r="S310" s="164"/>
       <c r="T310" s="42"/>
     </row>
-    <row r="311" spans="1:21" ht="12.95" customHeight="1">
+    <row r="311" spans="1:21" ht="12.9" customHeight="1">
       <c r="A311" s="161"/>
       <c r="B311" s="47"/>
       <c r="C311" s="10"/>
@@ -22643,7 +22644,7 @@
       <c r="T311" s="81"/>
       <c r="U311" s="47"/>
     </row>
-    <row r="312" spans="1:21" ht="12.95" customHeight="1">
+    <row r="312" spans="1:21" ht="12.9" customHeight="1">
       <c r="A312" s="161"/>
       <c r="B312" s="47"/>
       <c r="C312" s="10"/>
@@ -22666,7 +22667,7 @@
       <c r="T312" s="161"/>
       <c r="U312" s="47"/>
     </row>
-    <row r="313" spans="1:21" ht="12.95" customHeight="1">
+    <row r="313" spans="1:21" ht="12.9" customHeight="1">
       <c r="A313" s="161"/>
       <c r="B313" s="47"/>
       <c r="C313" s="10"/>
@@ -22689,7 +22690,7 @@
       <c r="T313" s="161"/>
       <c r="U313" s="47"/>
     </row>
-    <row r="314" spans="1:21" ht="12.95" customHeight="1">
+    <row r="314" spans="1:21" ht="12.9" customHeight="1">
       <c r="A314" s="161"/>
       <c r="B314" s="47"/>
       <c r="C314" s="10"/>
@@ -22712,7 +22713,7 @@
       <c r="T314" s="161"/>
       <c r="U314" s="47"/>
     </row>
-    <row r="315" spans="1:21" ht="12.95" customHeight="1">
+    <row r="315" spans="1:21" ht="12.9" customHeight="1">
       <c r="A315" s="161"/>
       <c r="B315" s="47"/>
       <c r="C315" s="10"/>
@@ -22735,7 +22736,7 @@
       <c r="T315" s="161"/>
       <c r="U315" s="47"/>
     </row>
-    <row r="316" spans="1:21" ht="12.95" customHeight="1">
+    <row r="316" spans="1:21" ht="12.9" customHeight="1">
       <c r="A316" s="161"/>
       <c r="B316" s="47"/>
       <c r="C316" s="10"/>
@@ -22758,7 +22759,7 @@
       <c r="T316" s="161"/>
       <c r="U316" s="47"/>
     </row>
-    <row r="317" spans="1:21" ht="12.95" customHeight="1">
+    <row r="317" spans="1:21" ht="12.9" customHeight="1">
       <c r="A317" s="161"/>
       <c r="B317" s="47"/>
       <c r="C317" s="10"/>
@@ -22781,7 +22782,7 @@
       <c r="T317" s="81"/>
       <c r="U317" s="47"/>
     </row>
-    <row r="318" spans="1:21" ht="12.95" customHeight="1">
+    <row r="318" spans="1:21" ht="12.9" customHeight="1">
       <c r="A318" s="161"/>
       <c r="B318" s="47"/>
       <c r="C318" s="10"/>
@@ -22804,7 +22805,7 @@
       <c r="T318" s="81"/>
       <c r="U318" s="47"/>
     </row>
-    <row r="319" spans="1:21" ht="12.95" customHeight="1">
+    <row r="319" spans="1:21" ht="12.9" customHeight="1">
       <c r="A319" s="161"/>
       <c r="B319" s="47"/>
       <c r="C319" s="10"/>
@@ -22827,7 +22828,7 @@
       <c r="T319" s="81"/>
       <c r="U319" s="47"/>
     </row>
-    <row r="320" spans="1:21" ht="12.95" customHeight="1">
+    <row r="320" spans="1:21" ht="12.9" customHeight="1">
       <c r="A320" s="161"/>
       <c r="B320" s="47"/>
       <c r="C320" s="10"/>
@@ -22850,7 +22851,7 @@
       <c r="T320" s="81"/>
       <c r="U320" s="47"/>
     </row>
-    <row r="321" spans="1:21" ht="12.95" customHeight="1">
+    <row r="321" spans="1:21" ht="12.9" customHeight="1">
       <c r="A321" s="161"/>
       <c r="B321" s="47"/>
       <c r="C321" s="10"/>
@@ -22873,7 +22874,7 @@
       <c r="T321" s="161"/>
       <c r="U321" s="47"/>
     </row>
-    <row r="322" spans="1:21" ht="12.95" customHeight="1">
+    <row r="322" spans="1:21" ht="12.9" customHeight="1">
       <c r="A322" s="161"/>
       <c r="B322" s="47"/>
       <c r="C322" s="10"/>
@@ -22896,7 +22897,7 @@
       <c r="T322" s="161"/>
       <c r="U322" s="47"/>
     </row>
-    <row r="323" spans="1:21" ht="12.95" customHeight="1">
+    <row r="323" spans="1:21" ht="12.9" customHeight="1">
       <c r="A323" s="161"/>
       <c r="B323" s="47"/>
       <c r="C323" s="10"/>
@@ -22919,7 +22920,7 @@
       <c r="T323" s="161"/>
       <c r="U323" s="47"/>
     </row>
-    <row r="324" spans="1:21" ht="12.95" customHeight="1">
+    <row r="324" spans="1:21" ht="12.9" customHeight="1">
       <c r="A324" s="161"/>
       <c r="B324" s="47"/>
       <c r="C324" s="10"/>
@@ -22942,7 +22943,7 @@
       <c r="T324" s="161"/>
       <c r="U324" s="47"/>
     </row>
-    <row r="325" spans="1:21" ht="12.95" customHeight="1">
+    <row r="325" spans="1:21" ht="12.9" customHeight="1">
       <c r="A325" s="161"/>
       <c r="B325" s="47"/>
       <c r="C325" s="10"/>
@@ -22965,7 +22966,7 @@
       <c r="T325" s="161"/>
       <c r="U325" s="47"/>
     </row>
-    <row r="326" spans="1:21" ht="12.95" customHeight="1">
+    <row r="326" spans="1:21" ht="12.9" customHeight="1">
       <c r="A326" s="161"/>
       <c r="B326" s="47"/>
       <c r="C326" s="10"/>
@@ -22988,7 +22989,7 @@
       <c r="T326" s="161"/>
       <c r="U326" s="47"/>
     </row>
-    <row r="327" spans="1:21" ht="12.95" customHeight="1">
+    <row r="327" spans="1:21" ht="12.9" customHeight="1">
       <c r="A327" s="161"/>
       <c r="B327" s="47"/>
       <c r="C327" s="10"/>
@@ -23011,7 +23012,7 @@
       <c r="T327" s="161"/>
       <c r="U327" s="47"/>
     </row>
-    <row r="328" spans="1:21" ht="12.95" customHeight="1">
+    <row r="328" spans="1:21" ht="12.9" customHeight="1">
       <c r="A328" s="161"/>
       <c r="B328" s="47"/>
       <c r="C328" s="10"/>
@@ -23034,7 +23035,7 @@
       <c r="T328" s="161"/>
       <c r="U328" s="47"/>
     </row>
-    <row r="329" spans="1:21" ht="12.95" customHeight="1">
+    <row r="329" spans="1:21" ht="12.9" customHeight="1">
       <c r="A329" s="161"/>
       <c r="B329" s="47"/>
       <c r="C329" s="10"/>
@@ -23057,7 +23058,7 @@
       <c r="T329" s="161"/>
       <c r="U329" s="47"/>
     </row>
-    <row r="330" spans="1:21" ht="12.95" customHeight="1">
+    <row r="330" spans="1:21" ht="12.9" customHeight="1">
       <c r="A330" s="57"/>
       <c r="M330" s="25"/>
       <c r="N330" s="26"/>
@@ -23065,7 +23066,7 @@
       <c r="S330" s="26"/>
       <c r="U330" s="25"/>
     </row>
-    <row r="331" spans="1:21" ht="12.95" customHeight="1">
+    <row r="331" spans="1:21" ht="12.9" customHeight="1">
       <c r="A331" s="57"/>
       <c r="K331" s="57"/>
       <c r="L331" s="57"/>
@@ -23077,7 +23078,7 @@
       <c r="S331" s="26"/>
       <c r="U331" s="25"/>
     </row>
-    <row r="332" spans="1:21" ht="12.95" customHeight="1">
+    <row r="332" spans="1:21" ht="12.9" customHeight="1">
       <c r="A332" s="57"/>
       <c r="M332" s="25"/>
       <c r="N332" s="26"/>
@@ -23086,9 +23087,9 @@
       <c r="T332" s="57"/>
       <c r="U332" s="25"/>
     </row>
-    <row r="333" spans="1:21" ht="16.899999999999999" customHeight="1"/>
+    <row r="333" spans="1:21" ht="16.95" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:U332">
+  <autoFilter ref="A1:U332" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="12">
       <filters blank="1">
         <filter val="L.  mellis"/>
@@ -23126,15 +23127,15 @@
     <sortCondition ref="C241:C249"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="T10" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/KT833121"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G25" r:id="rId5"/>
-    <hyperlink ref="G64" r:id="rId6"/>
-    <hyperlink ref="G258" r:id="rId7" display="https://doi.org/10.1016/j.syapm.2005.04.001"/>
-    <hyperlink ref="O18" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/nuccore/NZ_CP019323.1"/>
-    <hyperlink ref="F194" r:id="rId9" display="https://doi.org/10.1099/ijs.0.64229-0"/>
+    <hyperlink ref="T10" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/KT833121" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G64" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G258" r:id="rId7" display="https://doi.org/10.1016/j.syapm.2005.04.001" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O18" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/nuccore/NZ_CP019323.1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F194" r:id="rId9" display="https://doi.org/10.1099/ijs.0.64229-0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/data/2020_03_03.xlsx
+++ b/data/2020_03_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyts\Documents\Projects\new_lactobacillus_taxonomy\Lactotax\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyts\Documents\Projects\new_lactobacillus_taxonomy\lactotax\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876C7A8-852B-4CF7-84D9-F92CD532EAC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954004AE-52E9-4D2B-BE00-51ADB46B69AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34530" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5811,37 +5811,10 @@
     <t>reference for obsolete names</t>
   </si>
   <si>
-    <t>Lactobacillus futsaii ssp. futsaii; Lactobacillus futsaii ssp. chongquingii</t>
-  </si>
-  <si>
     <t>Lactobacillus terrae</t>
   </si>
   <si>
     <t>Lactobacillus zeae</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lactobacillus casei </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>alactosus; Lactobacillus casei ssp. pseudoplantarum</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5868,30 +5841,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lactobacillus casei </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rhamnosus</t>
-    </r>
-  </si>
-  <si>
     <t>10.1099/ijs.0.65432-0</t>
   </si>
   <si>
@@ -5901,88 +5850,9 @@
     <t>Lactobacillus lactis; Lactobacillus leichmanii</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pediococcus dextrinicus; Pediococcus cerevisiae </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dextrinicus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lactobacillus aviarius </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>araffinosus</t>
-    </r>
-  </si>
-  <si>
     <t>Zheng, Wittouck, Salvett et al., 2020</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lactobacillus aviarius</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ssp.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> aviarius</t>
-    </r>
-  </si>
-  <si>
     <t>Lactobacillus durianis</t>
   </si>
   <si>
@@ -6211,28 +6081,25 @@
     <t>JQBG01000000</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lactobacillus sanfrancisco; Lactobacillus brevis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>lindneri</t>
-    </r>
+    <t>Lactobacillus futsaii subsp. futsaii; Lactobacillus futsaii subsp. chongquingii</t>
+  </si>
+  <si>
+    <t>Lactobacillus sanfrancisco; Lactobacillus brevis subsp. lindneri</t>
+  </si>
+  <si>
+    <t>Lactobacillus casei subsp. alactosus; Lactobacillus casei subsp. pseudoplantarum</t>
+  </si>
+  <si>
+    <t>Lactobacillus casei subsp. rhamnosus</t>
+  </si>
+  <si>
+    <t>Pediococcus dextrinicus; Pediococcus cerevisiae subsp. dextrinicus</t>
+  </si>
+  <si>
+    <t>Lactobacillus aviarius subsp. araffinosus</t>
+  </si>
+  <si>
+    <t>Lactobacillus aviarius subsp. aviarius</t>
   </si>
 </sst>
 </file>
@@ -7354,33 +7221,35 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="23"/>
+    <col min="1" max="1" width="10.75" style="23"/>
     <col min="2" max="2" width="12" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="5" customWidth="1"/>
-    <col min="4" max="6" width="12.3984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13" style="22" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="56" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.69921875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="56" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="23" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.09765625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" style="23" customWidth="1"/>
-    <col min="15" max="15" width="25.59765625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="14.19921875" style="23" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" style="28" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" style="93" customWidth="1"/>
-    <col min="19" max="19" width="17.3984375" style="28" customWidth="1"/>
-    <col min="20" max="20" width="14.19921875" style="23" customWidth="1"/>
-    <col min="21" max="21" width="10.69921875" style="4"/>
-    <col min="22" max="16384" width="10.69921875" style="17"/>
+    <col min="13" max="13" width="9.125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="23" customWidth="1"/>
+    <col min="15" max="15" width="25.625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="23" customWidth="1"/>
+    <col min="17" max="17" width="17.375" style="28" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="93" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="28" customWidth="1"/>
+    <col min="20" max="20" width="14.25" style="23" customWidth="1"/>
+    <col min="21" max="21" width="10.75" style="4"/>
+    <col min="22" max="16384" width="10.75" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
@@ -7448,7 +7317,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="159" customFormat="1" ht="12.9" customHeight="1">
+    <row r="2" spans="1:21" s="159" customFormat="1" ht="12.95" customHeight="1">
       <c r="A2" s="80" t="s">
         <v>1062</v>
       </c>
@@ -7503,7 +7372,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="3" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>1065</v>
       </c>
@@ -7558,7 +7427,7 @@
       </c>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="4" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A4" s="79" t="s">
         <v>1061</v>
       </c>
@@ -7611,7 +7480,7 @@
       </c>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="5" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>1062</v>
       </c>
@@ -7666,7 +7535,7 @@
       </c>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" s="127" customFormat="1" ht="12.9" customHeight="1">
+    <row r="6" spans="1:21" s="127" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>1062</v>
       </c>
@@ -7721,7 +7590,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="7" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7776,7 +7645,7 @@
       </c>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="8" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7831,7 +7700,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="9" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7886,7 +7755,7 @@
       </c>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="10" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7939,7 +7808,7 @@
       </c>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="11" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>1063</v>
       </c>
@@ -7994,7 +7863,7 @@
       </c>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" s="18" customFormat="1" ht="12.9" customHeight="1">
+    <row r="12" spans="1:21" s="18" customFormat="1" ht="12.95" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>1063</v>
       </c>
@@ -8047,7 +7916,7 @@
       </c>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="13" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8100,7 +7969,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="14" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8155,7 +8024,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="15" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8210,7 +8079,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="16" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>1063</v>
       </c>
@@ -8265,7 +8134,7 @@
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="17" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8320,7 +8189,7 @@
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="18" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8375,7 +8244,7 @@
       </c>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="19" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8430,7 +8299,7 @@
       </c>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="20" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8485,7 +8354,7 @@
       </c>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="21" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8540,7 +8409,7 @@
       </c>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="22" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8595,7 +8464,7 @@
       </c>
       <c r="U22" s="104"/>
     </row>
-    <row r="23" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="23" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8648,7 +8517,7 @@
       </c>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="24" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8703,7 +8572,7 @@
       </c>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="25" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>1062</v>
       </c>
@@ -8715,7 +8584,7 @@
       </c>
       <c r="D25" s="90"/>
       <c r="E25" s="90" t="s">
-        <v>1709</v>
+        <v>1792</v>
       </c>
       <c r="F25" s="172" t="s">
         <v>1458</v>
@@ -8762,7 +8631,7 @@
       </c>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" s="107" customFormat="1" ht="12.9" customHeight="1">
+    <row r="26" spans="1:21" s="107" customFormat="1" ht="12.95" customHeight="1">
       <c r="A26" s="71" t="s">
         <v>1062</v>
       </c>
@@ -8819,7 +8688,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="107" customFormat="1" ht="12.9" customHeight="1">
+    <row r="27" spans="1:21" s="107" customFormat="1" ht="12.95" customHeight="1">
       <c r="A27" s="108" t="s">
         <v>1062</v>
       </c>
@@ -8874,7 +8743,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="28" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>1062</v>
       </c>
@@ -8929,7 +8798,7 @@
       </c>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" s="102" customFormat="1" ht="12.9" customHeight="1">
+    <row r="29" spans="1:21" s="102" customFormat="1" ht="12.95" customHeight="1">
       <c r="A29" s="23" t="s">
         <v>1062</v>
       </c>
@@ -8982,7 +8851,7 @@
       </c>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="30" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A30" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9035,7 +8904,7 @@
       </c>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="31" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A31" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9090,7 +8959,7 @@
       </c>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="32" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A32" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9143,7 +9012,7 @@
       </c>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="33" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A33" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9196,7 +9065,7 @@
       </c>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="34" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A34" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9249,7 +9118,7 @@
       </c>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="35" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A35" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9302,7 +9171,7 @@
       </c>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="36" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A36" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9357,7 +9226,7 @@
       </c>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="37" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A37" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9369,7 +9238,7 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F37" s="172" t="s">
         <v>1475</v>
@@ -9414,7 +9283,7 @@
       </c>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="38" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A38" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9469,7 +9338,7 @@
       </c>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="39" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A39" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9522,7 +9391,7 @@
       </c>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="40" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A40" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9577,7 +9446,7 @@
       </c>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="41" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>1062</v>
       </c>
@@ -9632,7 +9501,7 @@
       </c>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="42" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A42" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9687,7 +9556,7 @@
       </c>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" s="14" customFormat="1" ht="12.9" customHeight="1">
+    <row r="43" spans="1:21" s="14" customFormat="1" ht="12.95" customHeight="1">
       <c r="A43" s="81" t="s">
         <v>1062</v>
       </c>
@@ -9740,7 +9609,7 @@
       </c>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="12.9" customHeight="1">
+    <row r="44" spans="1:21" ht="12.95" customHeight="1">
       <c r="A44" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9789,7 +9658,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12.9" customHeight="1">
+    <row r="45" spans="1:21" ht="12.95" customHeight="1">
       <c r="A45" s="24" t="s">
         <v>1062</v>
       </c>
@@ -9844,7 +9713,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="12.9" customHeight="1">
+    <row r="46" spans="1:21" ht="12.95" customHeight="1">
       <c r="A46" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9893,7 +9762,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="47" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A47" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9948,7 +9817,7 @@
       </c>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="12.9" customHeight="1">
+    <row r="48" spans="1:21" ht="12.95" customHeight="1">
       <c r="A48" s="23" t="s">
         <v>1062</v>
       </c>
@@ -9999,7 +9868,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="12.9" customHeight="1">
+    <row r="49" spans="1:21" ht="12.95" customHeight="1">
       <c r="A49" s="81" t="s">
         <v>1062</v>
       </c>
@@ -10051,7 +9920,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="12.9" customHeight="1">
+    <row r="50" spans="1:21" ht="12.95" customHeight="1">
       <c r="A50" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10152,7 +10021,7 @@
       </c>
       <c r="U51" s="6"/>
     </row>
-    <row r="52" spans="1:21" ht="12.9" customHeight="1">
+    <row r="52" spans="1:21" ht="12.95" customHeight="1">
       <c r="A52" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10203,7 +10072,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="12.9" customHeight="1">
+    <row r="53" spans="1:21" ht="12.95" customHeight="1">
       <c r="A53" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10214,10 +10083,10 @@
         <v>188</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="F53" s="172" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="G53" s="131" t="s">
         <v>1482</v>
@@ -10260,7 +10129,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="54" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A54" s="24" t="s">
         <v>1067</v>
       </c>
@@ -10311,7 +10180,7 @@
       </c>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" ht="12.9" customHeight="1">
+    <row r="55" spans="1:21" ht="12.95" customHeight="1">
       <c r="A55" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10362,7 +10231,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="12.9" customHeight="1">
+    <row r="56" spans="1:21" ht="12.95" customHeight="1">
       <c r="A56" s="23" t="s">
         <v>1067</v>
       </c>
@@ -10373,10 +10242,10 @@
         <v>255</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="G56" s="131" t="s">
         <v>1485</v>
@@ -10419,7 +10288,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="57" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A57" s="24" t="s">
         <v>1067</v>
       </c>
@@ -10470,7 +10339,7 @@
       </c>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="58" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A58" s="24" t="s">
         <v>1062</v>
       </c>
@@ -10521,7 +10390,7 @@
       </c>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" ht="12.9" customHeight="1">
+    <row r="59" spans="1:21" ht="12.95" customHeight="1">
       <c r="A59" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10573,7 +10442,7 @@
       </c>
       <c r="U59" s="6"/>
     </row>
-    <row r="60" spans="1:21" ht="12.9" customHeight="1">
+    <row r="60" spans="1:21" ht="12.95" customHeight="1">
       <c r="A60" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10625,7 +10494,7 @@
       </c>
       <c r="U60" s="48"/>
     </row>
-    <row r="61" spans="1:21" ht="12.9" customHeight="1">
+    <row r="61" spans="1:21" ht="12.95" customHeight="1">
       <c r="A61" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10676,7 +10545,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="12.9" customHeight="1">
+    <row r="62" spans="1:21" ht="12.95" customHeight="1">
       <c r="A62" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10725,7 +10594,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="12.9" customHeight="1">
+    <row r="63" spans="1:21" ht="12.95" customHeight="1">
       <c r="A63" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10776,7 +10645,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="12.9" customHeight="1">
+    <row r="64" spans="1:21" ht="12.95" customHeight="1">
       <c r="A64" s="23" t="s">
         <v>1062</v>
       </c>
@@ -10827,7 +10696,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="65" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A65" s="23" t="s">
         <v>1064</v>
       </c>
@@ -10839,7 +10708,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F65" s="133" t="s">
         <v>1495</v>
@@ -10869,7 +10738,7 @@
         <v>537</v>
       </c>
       <c r="O65" s="23" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="P65" s="26"/>
       <c r="Q65" s="28" t="s">
@@ -10886,7 +10755,7 @@
       </c>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="66" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A66" s="81" t="s">
         <v>1062</v>
       </c>
@@ -10939,7 +10808,7 @@
       </c>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="67" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A67" s="24" t="s">
         <v>1062</v>
       </c>
@@ -10947,16 +10816,16 @@
         <v>3</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H67" s="65" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="I67" s="66">
         <v>2020</v>
@@ -10977,23 +10846,23 @@
         <v>537</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="P67" s="32"/>
       <c r="Q67" s="29" t="s">
         <v>1056</v>
       </c>
       <c r="R67" s="88" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="S67" s="32"/>
       <c r="T67" s="32" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="U67" s="61"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" ht="12.9" customHeight="1">
+    <row r="68" spans="1:22" ht="12.95" customHeight="1">
       <c r="A68" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11001,16 +10870,16 @@
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H68" s="179" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="I68" s="66">
         <v>2020</v>
@@ -11031,23 +10900,23 @@
         <v>537</v>
       </c>
       <c r="O68" s="24" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="P68" s="32"/>
       <c r="Q68" s="44" t="s">
         <v>1056</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="S68" s="153"/>
       <c r="T68" s="24" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="16"/>
     </row>
-    <row r="69" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="69" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A69" s="81" t="s">
         <v>1065</v>
       </c>
@@ -11100,7 +10969,7 @@
       </c>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="70" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A70" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11154,7 +11023,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" ht="12.9" customHeight="1">
+    <row r="71" spans="1:22" ht="12.95" customHeight="1">
       <c r="A71" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11206,7 +11075,7 @@
       </c>
       <c r="V71" s="119"/>
     </row>
-    <row r="72" spans="1:22" ht="12.9" customHeight="1">
+    <row r="72" spans="1:22" ht="12.95" customHeight="1">
       <c r="A72" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11258,7 +11127,7 @@
       </c>
       <c r="V72" s="119"/>
     </row>
-    <row r="73" spans="1:22" ht="12.9" customHeight="1">
+    <row r="73" spans="1:22" ht="12.95" customHeight="1">
       <c r="A73" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11309,7 +11178,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="20" customFormat="1" ht="12.9" customHeight="1">
+    <row r="74" spans="1:22" s="20" customFormat="1" ht="12.95" customHeight="1">
       <c r="A74" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11323,7 +11192,7 @@
         <v>1131</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1712</v>
+        <v>1794</v>
       </c>
       <c r="F74" s="49" t="s">
         <v>1381</v>
@@ -11332,7 +11201,7 @@
         <v>1381</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="I74" s="53">
         <v>1989</v>
@@ -11371,7 +11240,7 @@
       <c r="U74" s="4"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22" ht="12.9" customHeight="1">
+    <row r="75" spans="1:22" ht="12.95" customHeight="1">
       <c r="A75" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11385,7 +11254,7 @@
         <v>1132</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F75" s="49" t="s">
         <v>1381</v>
@@ -11429,7 +11298,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="12.9" customHeight="1">
+    <row r="76" spans="1:22" ht="12.95" customHeight="1">
       <c r="A76" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11481,7 +11350,7 @@
       </c>
       <c r="V76" s="20"/>
     </row>
-    <row r="77" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="77" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A77" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11493,7 +11362,7 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>1714</v>
+        <v>1795</v>
       </c>
       <c r="F77" s="49" t="s">
         <v>1381</v>
@@ -11541,7 +11410,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="78" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A78" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11597,7 +11466,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="79" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A79" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11652,7 +11521,7 @@
       </c>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="80" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A80" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11707,7 +11576,7 @@
       </c>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:22" ht="12.9" customHeight="1">
+    <row r="81" spans="1:22" ht="12.95" customHeight="1">
       <c r="A81" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11715,16 +11584,16 @@
         <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H81" s="182" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="I81" s="183">
         <v>2020</v>
@@ -11745,22 +11614,22 @@
         <v>537</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="P81" s="24"/>
       <c r="Q81" s="44" t="s">
         <v>1056</v>
       </c>
       <c r="R81" s="8" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="S81" s="24"/>
       <c r="T81" s="153" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="U81" s="44"/>
     </row>
-    <row r="82" spans="1:22" ht="12.9" customHeight="1">
+    <row r="82" spans="1:22" ht="12.95" customHeight="1">
       <c r="A82" s="23" t="s">
         <v>1062</v>
       </c>
@@ -11812,7 +11681,7 @@
       </c>
       <c r="V82" s="16"/>
     </row>
-    <row r="83" spans="1:22" ht="12.9" customHeight="1">
+    <row r="83" spans="1:22" ht="12.95" customHeight="1">
       <c r="A83" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11820,16 +11689,16 @@
         <v>3</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H83" s="65" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="I83" s="66">
         <v>2020</v>
@@ -11850,22 +11719,22 @@
         <v>537</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="P83" s="32"/>
       <c r="Q83" s="29" t="s">
         <v>1056</v>
       </c>
       <c r="R83" s="88" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="S83" s="32"/>
       <c r="T83" s="32" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="U83" s="61"/>
     </row>
-    <row r="84" spans="1:22" ht="12.9" customHeight="1">
+    <row r="84" spans="1:22" ht="12.95" customHeight="1">
       <c r="A84" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11914,7 +11783,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="85" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A85" s="23" t="s">
         <v>1064</v>
       </c>
@@ -11967,7 +11836,7 @@
       </c>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:22" ht="12.9" customHeight="1">
+    <row r="86" spans="1:22" ht="12.95" customHeight="1">
       <c r="A86" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12017,7 +11886,7 @@
       </c>
       <c r="U86" s="6"/>
     </row>
-    <row r="87" spans="1:22" ht="12.9" customHeight="1">
+    <row r="87" spans="1:22" ht="12.95" customHeight="1">
       <c r="A87" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12068,7 +11937,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="12.9" customHeight="1">
+    <row r="88" spans="1:22" ht="12.95" customHeight="1">
       <c r="A88" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12117,7 +11986,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="12.9" customHeight="1">
+    <row r="89" spans="1:22" ht="12.95" customHeight="1">
       <c r="A89" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12168,7 +12037,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="12.9" customHeight="1">
+    <row r="90" spans="1:22" ht="12.95" customHeight="1">
       <c r="A90" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12219,7 +12088,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="12.9" customHeight="1">
+    <row r="91" spans="1:22" ht="12.95" customHeight="1">
       <c r="A91" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12268,7 +12137,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="92" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A92" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12323,7 +12192,7 @@
       </c>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:22" ht="12.9" customHeight="1">
+    <row r="93" spans="1:22" ht="12.95" customHeight="1">
       <c r="A93" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12374,7 +12243,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="12.9" customHeight="1">
+    <row r="94" spans="1:22" ht="12.95" customHeight="1">
       <c r="A94" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12424,7 +12293,7 @@
       </c>
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="1:22" ht="12.9" customHeight="1">
+    <row r="95" spans="1:22" ht="12.95" customHeight="1">
       <c r="A95" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12475,7 +12344,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="12.9" customHeight="1">
+    <row r="96" spans="1:22" ht="12.95" customHeight="1">
       <c r="A96" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12529,7 +12398,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="12.9" customHeight="1">
+    <row r="97" spans="1:21" ht="12.95" customHeight="1">
       <c r="A97" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12581,7 +12450,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="12.9" customHeight="1">
+    <row r="98" spans="1:21" ht="12.95" customHeight="1">
       <c r="A98" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12631,7 +12500,7 @@
       </c>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" ht="12.9" customHeight="1">
+    <row r="99" spans="1:21" ht="12.95" customHeight="1">
       <c r="A99" s="23" t="s">
         <v>1064</v>
       </c>
@@ -12682,7 +12551,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="12.9" customHeight="1">
+    <row r="100" spans="1:21" ht="12.95" customHeight="1">
       <c r="A100" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12731,7 +12600,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="12.9" customHeight="1">
+    <row r="101" spans="1:21" ht="12.95" customHeight="1">
       <c r="A101" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12782,7 +12651,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="12.9" customHeight="1">
+    <row r="102" spans="1:21" ht="12.95" customHeight="1">
       <c r="A102" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12833,7 +12702,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="12.9" customHeight="1">
+    <row r="103" spans="1:21" ht="12.95" customHeight="1">
       <c r="A103" s="23" t="s">
         <v>1066</v>
       </c>
@@ -12844,10 +12713,10 @@
         <v>14</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="F103" s="173" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="G103" s="137" t="s">
         <v>1508</v>
@@ -12890,7 +12759,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="12.9" customHeight="1">
+    <row r="104" spans="1:21" ht="12.95" customHeight="1">
       <c r="A104" s="23" t="s">
         <v>1067</v>
       </c>
@@ -12943,7 +12812,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="12.9" customHeight="1">
+    <row r="105" spans="1:21" ht="12.95" customHeight="1">
       <c r="A105" s="23" t="s">
         <v>1067</v>
       </c>
@@ -12996,7 +12865,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="12.9" customHeight="1">
+    <row r="106" spans="1:21" ht="12.95" customHeight="1">
       <c r="A106" s="24" t="s">
         <v>1066</v>
       </c>
@@ -13047,7 +12916,7 @@
       </c>
       <c r="U106" s="7"/>
     </row>
-    <row r="107" spans="1:21" ht="12.9" customHeight="1">
+    <row r="107" spans="1:21" ht="12.95" customHeight="1">
       <c r="A107" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13098,7 +12967,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="12.9" customHeight="1">
+    <row r="108" spans="1:21" ht="12.95" customHeight="1">
       <c r="A108" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13112,7 +12981,7 @@
         <v>1133</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="F108" s="43" t="s">
         <v>1513</v>
@@ -13158,7 +13027,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="12.9" customHeight="1">
+    <row r="109" spans="1:21" ht="12.95" customHeight="1">
       <c r="A109" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13212,7 +13081,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="12.9" customHeight="1">
+    <row r="110" spans="1:21" ht="12.95" customHeight="1">
       <c r="A110" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13266,7 +13135,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="12.9" customHeight="1">
+    <row r="111" spans="1:21" ht="12.95" customHeight="1">
       <c r="A111" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13320,7 +13189,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="12.9" customHeight="1">
+    <row r="112" spans="1:21" ht="12.95" customHeight="1">
       <c r="A112" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13334,7 +13203,7 @@
         <v>1103</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="F112" s="43" t="s">
         <v>1513</v>
@@ -13380,7 +13249,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="12.9" customHeight="1">
+    <row r="113" spans="1:21" ht="12.95" customHeight="1">
       <c r="A113" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13434,7 +13303,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="12.9" customHeight="1">
+    <row r="114" spans="1:21" ht="12.95" customHeight="1">
       <c r="A114" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13485,7 +13354,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="12.9" customHeight="1">
+    <row r="115" spans="1:21" ht="12.95" customHeight="1">
       <c r="A115" s="24" t="s">
         <v>1066</v>
       </c>
@@ -13536,7 +13405,7 @@
       </c>
       <c r="U115" s="85"/>
     </row>
-    <row r="116" spans="1:21" ht="12.9" customHeight="1">
+    <row r="116" spans="1:21" ht="12.95" customHeight="1">
       <c r="A116" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13587,7 +13456,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="12.9" customHeight="1">
+    <row r="117" spans="1:21" ht="12.95" customHeight="1">
       <c r="A117" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13638,7 +13507,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="12.9" customHeight="1">
+    <row r="118" spans="1:21" ht="12.95" customHeight="1">
       <c r="A118" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13689,7 +13558,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="12.9" customHeight="1">
+    <row r="119" spans="1:21" ht="12.95" customHeight="1">
       <c r="A119" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13740,7 +13609,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="12.9" customHeight="1">
+    <row r="120" spans="1:21" ht="12.95" customHeight="1">
       <c r="A120" s="23" t="s">
         <v>1067</v>
       </c>
@@ -13792,7 +13661,7 @@
       </c>
       <c r="U120" s="6"/>
     </row>
-    <row r="121" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="121" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A121" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13847,7 +13716,7 @@
       </c>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="12.9" customHeight="1">
+    <row r="122" spans="1:21" ht="12.95" customHeight="1">
       <c r="A122" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13898,7 +13767,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="12.9" customHeight="1">
+    <row r="123" spans="1:21" ht="12.95" customHeight="1">
       <c r="A123" s="23" t="s">
         <v>1066</v>
       </c>
@@ -13949,7 +13818,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="124" spans="1:21" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A124" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14004,7 +13873,7 @@
       </c>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="12.9" customHeight="1">
+    <row r="125" spans="1:21" ht="12.95" customHeight="1">
       <c r="A125" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14055,7 +13924,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="12.9" customHeight="1">
+    <row r="126" spans="1:21" ht="12.95" customHeight="1">
       <c r="A126" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14106,7 +13975,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="12.9" customHeight="1">
+    <row r="127" spans="1:21" ht="12.95" customHeight="1">
       <c r="A127" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14157,7 +14026,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="12.9" customHeight="1">
+    <row r="128" spans="1:21" ht="12.95" customHeight="1">
       <c r="A128" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14211,7 +14080,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="12.9" customHeight="1">
+    <row r="129" spans="1:21" ht="12.95" customHeight="1">
       <c r="A129" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14265,7 +14134,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="12.9" customHeight="1">
+    <row r="130" spans="1:21" ht="12.95" customHeight="1">
       <c r="A130" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14316,7 +14185,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="12.9" customHeight="1">
+    <row r="131" spans="1:21" ht="12.95" customHeight="1">
       <c r="A131" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14367,7 +14236,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="12.9" customHeight="1">
+    <row r="132" spans="1:21" ht="12.95" customHeight="1">
       <c r="A132" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14418,7 +14287,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="12.9" customHeight="1">
+    <row r="133" spans="1:21" ht="12.95" customHeight="1">
       <c r="A133" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14469,7 +14338,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="12.9" customHeight="1">
+    <row r="134" spans="1:21" ht="12.95" customHeight="1">
       <c r="A134" s="24" t="s">
         <v>1066</v>
       </c>
@@ -14522,7 +14391,7 @@
       </c>
       <c r="U134" s="7"/>
     </row>
-    <row r="135" spans="1:21" ht="12.9" customHeight="1">
+    <row r="135" spans="1:21" ht="12.95" customHeight="1">
       <c r="A135" s="23" t="s">
         <v>1067</v>
       </c>
@@ -14571,7 +14440,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="136" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A136" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14624,7 +14493,7 @@
       </c>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" ht="12.9" customHeight="1">
+    <row r="137" spans="1:21" ht="12.95" customHeight="1">
       <c r="A137" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14676,7 +14545,7 @@
       </c>
       <c r="U137" s="6"/>
     </row>
-    <row r="138" spans="1:21" ht="12.9" customHeight="1">
+    <row r="138" spans="1:21" ht="12.95" customHeight="1">
       <c r="A138" s="24" t="s">
         <v>1066</v>
       </c>
@@ -14725,7 +14594,7 @@
       </c>
       <c r="U138" s="73"/>
     </row>
-    <row r="139" spans="1:21" ht="12.9" customHeight="1">
+    <row r="139" spans="1:21" ht="12.95" customHeight="1">
       <c r="A139" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14776,7 +14645,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="12.9" customHeight="1">
+    <row r="140" spans="1:21" ht="12.95" customHeight="1">
       <c r="A140" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14827,7 +14696,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="12.9" customHeight="1">
+    <row r="141" spans="1:21" ht="12.95" customHeight="1">
       <c r="A141" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14878,7 +14747,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="12.9" customHeight="1">
+    <row r="142" spans="1:21" ht="12.95" customHeight="1">
       <c r="A142" s="23" t="s">
         <v>1066</v>
       </c>
@@ -14929,7 +14798,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="12.9" customHeight="1">
+    <row r="143" spans="1:21" ht="12.95" customHeight="1">
       <c r="A143" s="24" t="s">
         <v>1066</v>
       </c>
@@ -14982,7 +14851,7 @@
       </c>
       <c r="U143" s="7"/>
     </row>
-    <row r="144" spans="1:21" ht="12.9" customHeight="1">
+    <row r="144" spans="1:21" ht="12.95" customHeight="1">
       <c r="A144" s="24" t="s">
         <v>1062</v>
       </c>
@@ -14990,16 +14859,16 @@
         <v>3</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H144" s="65" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="I144" s="66">
         <v>2020</v>
@@ -15020,22 +14889,22 @@
         <v>537</v>
       </c>
       <c r="O144" s="32" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="P144" s="32"/>
       <c r="Q144" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R144" s="88" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="S144" s="32"/>
       <c r="T144" s="32" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="U144" s="61"/>
     </row>
-    <row r="145" spans="1:22" ht="12.9" customHeight="1">
+    <row r="145" spans="1:22" ht="12.95" customHeight="1">
       <c r="A145" s="23" t="s">
         <v>1062</v>
       </c>
@@ -15085,7 +14954,7 @@
       </c>
       <c r="U145" s="6"/>
     </row>
-    <row r="146" spans="1:22" ht="12.9" customHeight="1">
+    <row r="146" spans="1:22" ht="12.95" customHeight="1">
       <c r="A146" s="23" t="s">
         <v>1062</v>
       </c>
@@ -15136,7 +15005,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="147" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="147" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A147" s="23" t="s">
         <v>1062</v>
       </c>
@@ -15148,7 +15017,7 @@
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>1718</v>
+        <v>1796</v>
       </c>
       <c r="F147" s="130" t="s">
         <v>1549</v>
@@ -15196,7 +15065,7 @@
       <c r="U147" s="9"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="1:22" ht="12.9" customHeight="1">
+    <row r="148" spans="1:22" ht="12.95" customHeight="1">
       <c r="A148" s="24" t="s">
         <v>1062</v>
       </c>
@@ -15204,16 +15073,16 @@
         <v>3</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H148" s="65" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="I148" s="66">
         <v>2020</v>
@@ -15234,23 +15103,23 @@
         <v>537</v>
       </c>
       <c r="O148" s="32" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="P148" s="32"/>
       <c r="Q148" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R148" s="88" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="S148" s="32"/>
       <c r="T148" s="32" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="U148" s="61"/>
       <c r="V148" s="97"/>
     </row>
-    <row r="149" spans="1:22" ht="12.9" customHeight="1">
+    <row r="149" spans="1:22" ht="12.95" customHeight="1">
       <c r="A149" s="24" t="s">
         <v>1062</v>
       </c>
@@ -15258,16 +15127,16 @@
         <v>3</v>
       </c>
       <c r="C149" s="84" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="D149" s="84"/>
       <c r="E149" s="84"/>
       <c r="F149" s="84"/>
       <c r="G149" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H149" s="61" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="I149" s="66">
         <v>2020</v>
@@ -15288,23 +15157,23 @@
         <v>537</v>
       </c>
       <c r="O149" s="32" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="P149" s="32"/>
       <c r="Q149" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R149" s="92" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="S149" s="32"/>
       <c r="T149" s="32" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="U149" s="61"/>
       <c r="V149" s="16"/>
     </row>
-    <row r="150" spans="1:22" s="97" customFormat="1" ht="12.9" customHeight="1">
+    <row r="150" spans="1:22" s="97" customFormat="1" ht="12.95" customHeight="1">
       <c r="A150" s="24" t="s">
         <v>1062</v>
       </c>
@@ -15312,16 +15181,16 @@
         <v>3</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H150" s="65" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="I150" s="66">
         <v>2020</v>
@@ -15342,23 +15211,23 @@
         <v>537</v>
       </c>
       <c r="O150" s="32" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="P150" s="32"/>
       <c r="Q150" s="29" t="s">
         <v>1005</v>
       </c>
       <c r="R150" s="88" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="S150" s="32"/>
       <c r="T150" s="32" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="U150" s="61"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="1:22" ht="12.9" customHeight="1">
+    <row r="151" spans="1:22" ht="12.95" customHeight="1">
       <c r="A151" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15409,7 +15278,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="12.9" customHeight="1">
+    <row r="152" spans="1:22" ht="12.95" customHeight="1">
       <c r="A152" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15460,7 +15329,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="12.9" customHeight="1">
+    <row r="153" spans="1:22" ht="12.95" customHeight="1">
       <c r="A153" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15511,7 +15380,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="12.9" customHeight="1">
+    <row r="154" spans="1:22" ht="12.95" customHeight="1">
       <c r="A154" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15563,7 +15432,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="12.9" customHeight="1">
+    <row r="155" spans="1:22" ht="12.95" customHeight="1">
       <c r="A155" s="82" t="s">
         <v>1065</v>
       </c>
@@ -15617,7 +15486,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="12.9" customHeight="1">
+    <row r="156" spans="1:22" ht="12.95" customHeight="1">
       <c r="A156" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15668,7 +15537,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="12.9" customHeight="1">
+    <row r="157" spans="1:22" ht="12.95" customHeight="1">
       <c r="A157" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15719,7 +15588,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="12.9" customHeight="1">
+    <row r="158" spans="1:22" ht="12.95" customHeight="1">
       <c r="A158" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15770,7 +15639,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="12.9" customHeight="1">
+    <row r="159" spans="1:22" ht="12.95" customHeight="1">
       <c r="A159" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15822,7 +15691,7 @@
       </c>
       <c r="U159" s="83"/>
     </row>
-    <row r="160" spans="1:22" ht="12.9" customHeight="1">
+    <row r="160" spans="1:22" ht="12.95" customHeight="1">
       <c r="A160" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15874,7 +15743,7 @@
       </c>
       <c r="U160" s="83"/>
     </row>
-    <row r="161" spans="1:21" ht="12.9" customHeight="1">
+    <row r="161" spans="1:21" ht="12.95" customHeight="1">
       <c r="A161" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15925,7 +15794,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="162" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="162" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A162" s="23" t="s">
         <v>1065</v>
       </c>
@@ -15980,7 +15849,7 @@
       </c>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="1:21" ht="12.9" customHeight="1">
+    <row r="163" spans="1:21" ht="12.95" customHeight="1">
       <c r="A163" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16031,7 +15900,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="12.9" customHeight="1">
+    <row r="164" spans="1:21" ht="12.95" customHeight="1">
       <c r="A164" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16042,10 +15911,10 @@
         <v>233</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="G164" s="130" t="s">
         <v>1569</v>
@@ -16090,7 +15959,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="165" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="165" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A165" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16145,7 +16014,7 @@
       </c>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="166" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A166" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16200,7 +16069,7 @@
       </c>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="1:21" ht="12.9" customHeight="1">
+    <row r="167" spans="1:21" ht="12.95" customHeight="1">
       <c r="A167" s="81" t="s">
         <v>1065</v>
       </c>
@@ -16252,7 +16121,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="12.9" customHeight="1">
+    <row r="168" spans="1:21" ht="12.95" customHeight="1">
       <c r="A168" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16303,7 +16172,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="12.9" customHeight="1">
+    <row r="169" spans="1:21" ht="12.95" customHeight="1">
       <c r="A169" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16354,7 +16223,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="12.9" customHeight="1">
+    <row r="170" spans="1:21" ht="12.95" customHeight="1">
       <c r="A170" s="23" t="s">
         <v>1062</v>
       </c>
@@ -16405,7 +16274,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="12.9" customHeight="1">
+    <row r="171" spans="1:21" ht="12.95" customHeight="1">
       <c r="A171" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16456,7 +16325,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="12.9" customHeight="1">
+    <row r="172" spans="1:21" ht="12.95" customHeight="1">
       <c r="A172" s="24" t="s">
         <v>1065</v>
       </c>
@@ -16464,22 +16333,22 @@
         <v>3</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H172" s="65" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="I172" s="66">
         <v>2020</v>
       </c>
       <c r="J172" s="61" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="K172" s="32">
         <v>2.8</v>
@@ -16494,22 +16363,22 @@
         <v>164</v>
       </c>
       <c r="O172" s="32" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="P172" s="32"/>
       <c r="Q172" s="29" t="s">
         <v>984</v>
       </c>
       <c r="R172" s="8" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="S172" s="115"/>
       <c r="T172" s="32" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="U172" s="29"/>
     </row>
-    <row r="173" spans="1:21" ht="12.9" customHeight="1">
+    <row r="173" spans="1:21" ht="12.95" customHeight="1">
       <c r="A173" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16558,7 +16427,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="12.9" customHeight="1">
+    <row r="174" spans="1:21" ht="12.95" customHeight="1">
       <c r="A174" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16609,7 +16478,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="12.9" customHeight="1">
+    <row r="175" spans="1:21" ht="12.95" customHeight="1">
       <c r="A175" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16660,7 +16529,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="12.9" customHeight="1">
+    <row r="176" spans="1:21" ht="12.95" customHeight="1">
       <c r="A176" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16709,7 +16578,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="177" spans="1:22" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="177" spans="1:22" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A177" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16763,7 +16632,7 @@
       <c r="U177" s="4"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="1:22" ht="12.9" customHeight="1">
+    <row r="178" spans="1:22" ht="12.95" customHeight="1">
       <c r="A178" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16815,7 +16684,7 @@
       </c>
       <c r="V178" s="16"/>
     </row>
-    <row r="179" spans="1:22" ht="12.9" customHeight="1">
+    <row r="179" spans="1:22" ht="12.95" customHeight="1">
       <c r="A179" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16864,7 +16733,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="12.9" customHeight="1">
+    <row r="180" spans="1:22" ht="12.95" customHeight="1">
       <c r="A180" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16916,7 +16785,7 @@
       </c>
       <c r="U180" s="6"/>
     </row>
-    <row r="181" spans="1:22" ht="12.9" customHeight="1">
+    <row r="181" spans="1:22" ht="12.95" customHeight="1">
       <c r="A181" s="23" t="s">
         <v>1065</v>
       </c>
@@ -16965,7 +16834,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="12.9" customHeight="1">
+    <row r="182" spans="1:22" ht="12.95" customHeight="1">
       <c r="A182" s="24" t="s">
         <v>1065</v>
       </c>
@@ -17018,7 +16887,7 @@
       </c>
       <c r="U182" s="7"/>
     </row>
-    <row r="183" spans="1:22" ht="12.9" customHeight="1">
+    <row r="183" spans="1:22" ht="12.95" customHeight="1">
       <c r="A183" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17069,7 +16938,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="12.9" customHeight="1">
+    <row r="184" spans="1:22" ht="12.95" customHeight="1">
       <c r="A184" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17120,7 +16989,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="12.9" customHeight="1">
+    <row r="185" spans="1:22" ht="12.95" customHeight="1">
       <c r="A185" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17171,7 +17040,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="12.9" customHeight="1">
+    <row r="186" spans="1:22" ht="12.95" customHeight="1">
       <c r="A186" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17222,7 +17091,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="12.9" customHeight="1">
+    <row r="187" spans="1:22" ht="12.95" customHeight="1">
       <c r="A187" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17273,7 +17142,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="12.9" customHeight="1">
+    <row r="188" spans="1:22" ht="12.95" customHeight="1">
       <c r="A188" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17322,7 +17191,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="12.9" customHeight="1">
+    <row r="189" spans="1:22" ht="12.95" customHeight="1">
       <c r="A189" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17371,7 +17240,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="12.9" customHeight="1">
+    <row r="190" spans="1:22" ht="12.95" customHeight="1">
       <c r="A190" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17420,7 +17289,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="12.9" customHeight="1">
+    <row r="191" spans="1:22" ht="12.95" customHeight="1">
       <c r="A191" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17469,7 +17338,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="12.9" customHeight="1">
+    <row r="192" spans="1:22" ht="12.95" customHeight="1">
       <c r="A192" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17521,7 +17390,7 @@
       </c>
       <c r="U192" s="6"/>
     </row>
-    <row r="193" spans="1:21" ht="12.9" customHeight="1">
+    <row r="193" spans="1:21" ht="12.95" customHeight="1">
       <c r="A193" s="23" t="s">
         <v>1065</v>
       </c>
@@ -17572,7 +17441,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="12.9" customHeight="1">
+    <row r="194" spans="1:21" ht="12.95" customHeight="1">
       <c r="A194" s="23" t="s">
         <v>1062</v>
       </c>
@@ -17583,10 +17452,10 @@
         <v>438</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="F194" s="175" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="G194" s="130" t="s">
         <v>1584</v>
@@ -17629,7 +17498,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="12.9" customHeight="1">
+    <row r="195" spans="1:21" ht="12.95" customHeight="1">
       <c r="A195" s="23" t="s">
         <v>1062</v>
       </c>
@@ -17680,7 +17549,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="196" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="196" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A196" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17735,7 +17604,7 @@
       </c>
       <c r="U196" s="6"/>
     </row>
-    <row r="197" spans="1:21" ht="12.9" customHeight="1">
+    <row r="197" spans="1:21" ht="12.95" customHeight="1">
       <c r="A197" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17786,7 +17655,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="198" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="198" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A198" s="26" t="s">
         <v>1066</v>
       </c>
@@ -17798,10 +17667,10 @@
       </c>
       <c r="D198" s="87"/>
       <c r="E198" s="87" t="s">
-        <v>1719</v>
+        <v>1797</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="G198" s="143" t="s">
         <v>1587</v>
@@ -17843,7 +17712,7 @@
       </c>
       <c r="U198" s="9"/>
     </row>
-    <row r="199" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="199" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A199" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17855,10 +17724,10 @@
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="43" t="s">
-        <v>1721</v>
+        <v>1798</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="G199" s="130" t="s">
         <v>1598</v>
@@ -17902,7 +17771,7 @@
       </c>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="200" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A200" s="23" t="s">
         <v>1066</v>
       </c>
@@ -17957,7 +17826,7 @@
       </c>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="1:21" ht="12.9" customHeight="1">
+    <row r="201" spans="1:21" ht="12.95" customHeight="1">
       <c r="A201" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18008,7 +17877,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="12.9" customHeight="1">
+    <row r="202" spans="1:21" ht="12.95" customHeight="1">
       <c r="A202" s="24" t="s">
         <v>1066</v>
       </c>
@@ -18057,7 +17926,7 @@
       </c>
       <c r="U202" s="7"/>
     </row>
-    <row r="203" spans="1:21" ht="12.9" customHeight="1">
+    <row r="203" spans="1:21" ht="12.95" customHeight="1">
       <c r="A203" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18108,7 +17977,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="12.9" customHeight="1">
+    <row r="204" spans="1:21" ht="12.95" customHeight="1">
       <c r="A204" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18159,7 +18028,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="12.9" customHeight="1">
+    <row r="205" spans="1:21" ht="12.95" customHeight="1">
       <c r="A205" s="23" t="s">
         <v>1062</v>
       </c>
@@ -18210,7 +18079,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="12.9" customHeight="1">
+    <row r="206" spans="1:21" ht="12.95" customHeight="1">
       <c r="A206" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18261,7 +18130,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="207" spans="1:21" s="128" customFormat="1" ht="12.9" customHeight="1">
+    <row r="207" spans="1:21" s="128" customFormat="1" ht="12.95" customHeight="1">
       <c r="A207" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18316,7 +18185,7 @@
       </c>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="1:21" s="98" customFormat="1" ht="12.9" customHeight="1">
+    <row r="208" spans="1:21" s="98" customFormat="1" ht="12.95" customHeight="1">
       <c r="A208" s="23" t="s">
         <v>1062</v>
       </c>
@@ -18369,7 +18238,7 @@
       </c>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="209" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A209" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18424,7 +18293,7 @@
       </c>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="1:21" ht="12.9" customHeight="1">
+    <row r="210" spans="1:21" ht="12.95" customHeight="1">
       <c r="A210" s="24" t="s">
         <v>1066</v>
       </c>
@@ -18475,7 +18344,7 @@
       </c>
       <c r="U210" s="7"/>
     </row>
-    <row r="211" spans="1:21" ht="12.9" customHeight="1">
+    <row r="211" spans="1:21" ht="12.95" customHeight="1">
       <c r="A211" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18526,7 +18395,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="12.9" customHeight="1">
+    <row r="212" spans="1:21" ht="12.95" customHeight="1">
       <c r="A212" s="24" t="s">
         <v>1066</v>
       </c>
@@ -18577,7 +18446,7 @@
       </c>
       <c r="U212" s="77"/>
     </row>
-    <row r="213" spans="1:21" ht="12.9" customHeight="1">
+    <row r="213" spans="1:21" ht="12.95" customHeight="1">
       <c r="A213" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18630,7 +18499,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="214" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="214" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A214" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18685,7 +18554,7 @@
       </c>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="215" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A215" s="23" t="s">
         <v>1062</v>
       </c>
@@ -18740,7 +18609,7 @@
       </c>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="1:21" ht="12.9" customHeight="1">
+    <row r="216" spans="1:21" ht="12.95" customHeight="1">
       <c r="A216" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18791,7 +18660,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="12.9" customHeight="1">
+    <row r="217" spans="1:21" ht="12.95" customHeight="1">
       <c r="A217" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18842,7 +18711,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="12.9" customHeight="1">
+    <row r="218" spans="1:21" ht="12.95" customHeight="1">
       <c r="A218" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18893,7 +18762,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="12.9" customHeight="1">
+    <row r="219" spans="1:21" ht="12.95" customHeight="1">
       <c r="A219" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18945,7 +18814,7 @@
       </c>
       <c r="U219" s="6"/>
     </row>
-    <row r="220" spans="1:21" ht="12.9" customHeight="1">
+    <row r="220" spans="1:21" ht="12.95" customHeight="1">
       <c r="A220" s="23" t="s">
         <v>1066</v>
       </c>
@@ -18996,13 +18865,13 @@
         <v>822</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="12.9" customHeight="1">
+    <row r="221" spans="1:21" ht="12.95" customHeight="1">
       <c r="A221" s="80"/>
       <c r="B221" s="45"/>
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
       <c r="E221" s="12" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="F221" s="142" t="s">
         <v>1608</v>
@@ -19037,7 +18906,7 @@
       <c r="T221" s="39"/>
       <c r="U221" s="11"/>
     </row>
-    <row r="222" spans="1:21" ht="12.9" customHeight="1">
+    <row r="222" spans="1:21" ht="12.95" customHeight="1">
       <c r="A222" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19089,7 +18958,7 @@
       </c>
       <c r="U222" s="6"/>
     </row>
-    <row r="223" spans="1:21" ht="12.9" customHeight="1">
+    <row r="223" spans="1:21" ht="12.95" customHeight="1">
       <c r="A223" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19140,7 +19009,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="12.9" customHeight="1">
+    <row r="224" spans="1:21" ht="12.95" customHeight="1">
       <c r="A224" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19191,7 +19060,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="12.9" customHeight="1">
+    <row r="225" spans="1:21" ht="12.95" customHeight="1">
       <c r="A225" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19242,7 +19111,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="12.9" customHeight="1">
+    <row r="226" spans="1:21" ht="12.95" customHeight="1">
       <c r="A226" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19293,7 +19162,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="12.9" customHeight="1">
+    <row r="227" spans="1:21" ht="12.95" customHeight="1">
       <c r="A227" s="23" t="s">
         <v>1066</v>
       </c>
@@ -19344,7 +19213,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="12.9" customHeight="1">
+    <row r="228" spans="1:21" ht="12.95" customHeight="1">
       <c r="A228" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19395,7 +19264,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="12.9" customHeight="1">
+    <row r="229" spans="1:21" ht="12.95" customHeight="1">
       <c r="A229" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19446,7 +19315,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="230" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="230" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A230" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19501,7 +19370,7 @@
       </c>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="1:21" ht="12.9" customHeight="1">
+    <row r="231" spans="1:21" ht="12.95" customHeight="1">
       <c r="A231" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19553,7 +19422,7 @@
       </c>
       <c r="U231" s="6"/>
     </row>
-    <row r="232" spans="1:21" ht="12.9" customHeight="1">
+    <row r="232" spans="1:21" ht="12.95" customHeight="1">
       <c r="A232" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19604,7 +19473,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="12.9" customHeight="1">
+    <row r="233" spans="1:21" ht="12.95" customHeight="1">
       <c r="A233" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19656,7 +19525,7 @@
       </c>
       <c r="U233" s="9"/>
     </row>
-    <row r="234" spans="1:21" ht="12.9" customHeight="1">
+    <row r="234" spans="1:21" ht="12.95" customHeight="1">
       <c r="A234" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19708,7 +19577,7 @@
       </c>
       <c r="U234" s="9"/>
     </row>
-    <row r="235" spans="1:21" ht="12.9" customHeight="1">
+    <row r="235" spans="1:21" ht="12.95" customHeight="1">
       <c r="A235" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19759,7 +19628,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="236" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="236" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A236" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19814,7 +19683,7 @@
       </c>
       <c r="U236" s="9"/>
     </row>
-    <row r="237" spans="1:21" ht="12.9" customHeight="1">
+    <row r="237" spans="1:21" ht="12.95" customHeight="1">
       <c r="A237" s="81" t="s">
         <v>1065</v>
       </c>
@@ -19867,7 +19736,7 @@
       </c>
       <c r="U237" s="6"/>
     </row>
-    <row r="238" spans="1:21" ht="12.9" customHeight="1">
+    <row r="238" spans="1:21" ht="12.95" customHeight="1">
       <c r="A238" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19918,7 +19787,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="12.9" customHeight="1">
+    <row r="239" spans="1:21" ht="12.95" customHeight="1">
       <c r="A239" s="23" t="s">
         <v>1065</v>
       </c>
@@ -19969,7 +19838,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="12.9" customHeight="1">
+    <row r="240" spans="1:21" ht="12.95" customHeight="1">
       <c r="A240" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20020,7 +19889,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="12.9" customHeight="1">
+    <row r="241" spans="1:22" ht="12.95" customHeight="1">
       <c r="A241" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20074,7 +19943,7 @@
       </c>
       <c r="U241" s="6"/>
     </row>
-    <row r="242" spans="1:22" ht="12.9" customHeight="1">
+    <row r="242" spans="1:22" ht="12.95" customHeight="1">
       <c r="A242" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20125,7 +19994,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="12.9" customHeight="1">
+    <row r="243" spans="1:22" ht="12.95" customHeight="1">
       <c r="A243" s="181" t="s">
         <v>1062</v>
       </c>
@@ -20133,16 +20002,16 @@
         <v>3</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
       <c r="G243" s="149" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="H243" s="65" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="I243" s="66">
         <v>2020</v>
@@ -20163,22 +20032,22 @@
         <v>537</v>
       </c>
       <c r="O243" s="32" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="P243" s="32"/>
       <c r="Q243" s="29" t="s">
         <v>1059</v>
       </c>
       <c r="R243" s="88" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="S243" s="32"/>
       <c r="T243" s="32" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="U243" s="29"/>
     </row>
-    <row r="244" spans="1:22" ht="12.9" customHeight="1">
+    <row r="244" spans="1:22" ht="12.95" customHeight="1">
       <c r="A244" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20230,7 +20099,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="245" spans="1:22" s="2" customFormat="1" ht="12.9" customHeight="1">
+    <row r="245" spans="1:22" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A245" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20288,7 +20157,7 @@
       <c r="U245" s="4"/>
       <c r="V245" s="17"/>
     </row>
-    <row r="246" spans="1:22" ht="12.9" customHeight="1">
+    <row r="246" spans="1:22" ht="12.95" customHeight="1">
       <c r="A246" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20340,7 +20209,7 @@
       </c>
       <c r="V246" s="2"/>
     </row>
-    <row r="247" spans="1:22" ht="12.9" customHeight="1">
+    <row r="247" spans="1:22" ht="12.95" customHeight="1">
       <c r="A247" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20389,7 +20258,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="12.9" customHeight="1">
+    <row r="248" spans="1:22" ht="12.95" customHeight="1">
       <c r="A248" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20440,7 +20309,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="12.9" customHeight="1">
+    <row r="249" spans="1:22" ht="12.95" customHeight="1">
       <c r="A249" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20489,7 +20358,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="12.9" customHeight="1">
+    <row r="250" spans="1:22" ht="12.95" customHeight="1">
       <c r="A250" s="23" t="s">
         <v>1062</v>
       </c>
@@ -20540,7 +20409,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="12.9" customHeight="1">
+    <row r="251" spans="1:22" ht="12.95" customHeight="1">
       <c r="A251" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20591,7 +20460,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="252" spans="1:22" s="119" customFormat="1" ht="12.9" customHeight="1">
+    <row r="252" spans="1:22" s="119" customFormat="1" ht="12.95" customHeight="1">
       <c r="A252" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20644,7 +20513,7 @@
       </c>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="1:22" ht="12.9" customHeight="1">
+    <row r="253" spans="1:22" ht="12.95" customHeight="1">
       <c r="A253" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20695,7 +20564,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="12.9" customHeight="1">
+    <row r="254" spans="1:22" ht="12.95" customHeight="1">
       <c r="A254" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20746,7 +20615,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="12.9" customHeight="1">
+    <row r="255" spans="1:22" ht="12.95" customHeight="1">
       <c r="A255" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20797,7 +20666,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="12.9" customHeight="1">
+    <row r="256" spans="1:22" ht="12.95" customHeight="1">
       <c r="A256" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20808,7 +20677,7 @@
         <v>414</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="F256" s="142" t="s">
         <v>1624</v>
@@ -20854,7 +20723,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="12.9" customHeight="1">
+    <row r="257" spans="1:21" ht="12.95" customHeight="1">
       <c r="A257" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20905,7 +20774,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="12.9" customHeight="1">
+    <row r="258" spans="1:21" ht="12.95" customHeight="1">
       <c r="A258" s="23" t="s">
         <v>1065</v>
       </c>
@@ -20956,7 +20825,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="12.9" customHeight="1">
+    <row r="259" spans="1:21" ht="12.95" customHeight="1">
       <c r="A259" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21007,7 +20876,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="260" spans="1:21" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="260" spans="1:21" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A260" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21062,7 +20931,7 @@
       </c>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="1:21" ht="12.9" customHeight="1">
+    <row r="261" spans="1:21" ht="12.95" customHeight="1">
       <c r="A261" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21113,7 +20982,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="12.9" customHeight="1">
+    <row r="262" spans="1:21" ht="12.95" customHeight="1">
       <c r="A262" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21165,7 +21034,7 @@
       </c>
       <c r="U262" s="6"/>
     </row>
-    <row r="263" spans="1:21" ht="12.9" customHeight="1">
+    <row r="263" spans="1:21" ht="12.95" customHeight="1">
       <c r="A263" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21216,7 +21085,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="12.9" customHeight="1">
+    <row r="264" spans="1:21" ht="12.95" customHeight="1">
       <c r="A264" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21267,7 +21136,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="265" spans="1:21" ht="12.9" customHeight="1">
+    <row r="265" spans="1:21" ht="12.95" customHeight="1">
       <c r="A265" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21318,7 +21187,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="12.9" customHeight="1">
+    <row r="266" spans="1:21" ht="12.95" customHeight="1">
       <c r="A266" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21369,7 +21238,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="12.9" customHeight="1">
+    <row r="267" spans="1:21" ht="12.95" customHeight="1">
       <c r="A267" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21420,7 +21289,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="12.9" customHeight="1">
+    <row r="268" spans="1:21" ht="12.95" customHeight="1">
       <c r="A268" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21471,7 +21340,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="12.9" customHeight="1">
+    <row r="269" spans="1:21" ht="12.95" customHeight="1">
       <c r="A269" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21522,7 +21391,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="270" spans="1:21" ht="12.9" customHeight="1">
+    <row r="270" spans="1:21" ht="12.95" customHeight="1">
       <c r="A270" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21573,7 +21442,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="271" spans="1:21" ht="12.9" customHeight="1">
+    <row r="271" spans="1:21" ht="12.95" customHeight="1">
       <c r="A271" s="23" t="s">
         <v>1065</v>
       </c>
@@ -21624,15 +21493,15 @@
         <v>685</v>
       </c>
     </row>
-    <row r="272" spans="1:21" ht="12.9" customHeight="1">
+    <row r="272" spans="1:21" ht="12.95" customHeight="1">
       <c r="A272" s="23" t="s">
         <v>1062</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="F272" s="162" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G272" s="162"/>
       <c r="H272" s="27"/>
@@ -21643,26 +21512,26 @@
       <c r="K272" s="30"/>
       <c r="L272" s="26"/>
       <c r="M272" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="N272" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O272" s="23" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="P272" s="26"/>
       <c r="Q272" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R272" s="87" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="S272" s="121"/>
       <c r="T272" s="26"/>
       <c r="U272" s="47"/>
     </row>
-    <row r="273" spans="1:22" s="180" customFormat="1" ht="12.9" customHeight="1">
+    <row r="273" spans="1:22" s="180" customFormat="1" ht="12.95" customHeight="1">
       <c r="A273" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21670,10 +21539,10 @@
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="F273" s="162" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G273" s="162"/>
       <c r="H273" s="27"/>
@@ -21684,26 +21553,26 @@
       <c r="K273" s="30"/>
       <c r="L273" s="26"/>
       <c r="M273" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="N273" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O273" s="23" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="P273" s="26"/>
       <c r="Q273" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R273" s="87" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="S273" s="121"/>
       <c r="T273" s="26"/>
       <c r="U273" s="47"/>
     </row>
-    <row r="274" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="274" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A274" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21711,10 +21580,10 @@
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="F274" s="162" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G274" s="162"/>
       <c r="H274" s="27"/>
@@ -21725,26 +21594,26 @@
       <c r="K274" s="30"/>
       <c r="L274" s="26"/>
       <c r="M274" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="N274" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O274" s="23" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="P274" s="26"/>
       <c r="Q274" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R274" s="87" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="S274" s="121"/>
       <c r="T274" s="26"/>
       <c r="U274" s="47"/>
     </row>
-    <row r="275" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="275" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A275" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21752,10 +21621,10 @@
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="F275" s="162" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G275" s="162"/>
       <c r="H275" s="27"/>
@@ -21766,27 +21635,27 @@
       <c r="K275" s="30"/>
       <c r="L275" s="26"/>
       <c r="M275" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="N275" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O275" s="23" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="P275" s="26"/>
       <c r="Q275" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R275" s="87" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="S275" s="178"/>
       <c r="T275" s="166"/>
       <c r="U275" s="47"/>
       <c r="V275" s="61"/>
     </row>
-    <row r="276" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="276" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A276" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21794,10 +21663,10 @@
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="F276" s="162" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G276" s="162"/>
       <c r="H276" s="27"/>
@@ -21808,27 +21677,27 @@
       <c r="K276" s="30"/>
       <c r="L276" s="26"/>
       <c r="M276" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="N276" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O276" s="23" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="P276" s="26"/>
       <c r="Q276" s="28" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R276" s="87" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="S276" s="178"/>
       <c r="T276" s="166"/>
       <c r="U276" s="47"/>
       <c r="V276" s="61"/>
     </row>
-    <row r="277" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="277" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A277" s="23" t="s">
         <v>1062</v>
       </c>
@@ -21836,10 +21705,10 @@
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="F277" s="43" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="G277" s="131"/>
       <c r="H277" s="177"/>
@@ -21850,27 +21719,27 @@
       <c r="K277" s="30"/>
       <c r="L277" s="26"/>
       <c r="M277" s="28" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="N277" s="26" t="s">
         <v>537</v>
       </c>
       <c r="O277" s="23" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="P277" s="26"/>
       <c r="Q277" s="28" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="R277" s="87" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="S277" s="121"/>
       <c r="T277" s="26"/>
       <c r="U277" s="4"/>
       <c r="V277" s="61"/>
     </row>
-    <row r="278" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="278" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A278" s="23"/>
       <c r="B278" s="25"/>
       <c r="C278" s="5"/>
@@ -21894,7 +21763,7 @@
       <c r="U278" s="9"/>
       <c r="V278" s="61"/>
     </row>
-    <row r="279" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="279" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A279" s="23"/>
       <c r="B279" s="25"/>
       <c r="C279" s="5"/>
@@ -21918,7 +21787,7 @@
       <c r="U279" s="9"/>
       <c r="V279" s="61"/>
     </row>
-    <row r="280" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="280" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A280" s="23"/>
       <c r="B280" s="25"/>
       <c r="C280" s="5"/>
@@ -21942,7 +21811,7 @@
       <c r="U280" s="9"/>
       <c r="V280" s="61"/>
     </row>
-    <row r="281" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="281" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A281" s="23"/>
       <c r="B281" s="25"/>
       <c r="C281" s="5"/>
@@ -21966,7 +21835,7 @@
       <c r="U281" s="9"/>
       <c r="V281" s="61"/>
     </row>
-    <row r="282" spans="1:22" s="126" customFormat="1" ht="12.9" customHeight="1">
+    <row r="282" spans="1:22" s="126" customFormat="1" ht="12.95" customHeight="1">
       <c r="A282" s="23"/>
       <c r="B282" s="25"/>
       <c r="C282" s="5"/>
@@ -21990,7 +21859,7 @@
       <c r="U282" s="9"/>
       <c r="V282" s="61"/>
     </row>
-    <row r="283" spans="1:22" ht="12.9" customHeight="1">
+    <row r="283" spans="1:22" ht="12.95" customHeight="1">
       <c r="A283" s="81"/>
       <c r="B283" s="47"/>
       <c r="C283" s="165"/>
@@ -22014,7 +21883,7 @@
       <c r="U283" s="9"/>
       <c r="V283" s="9"/>
     </row>
-    <row r="284" spans="1:22" ht="12.9" customHeight="1">
+    <row r="284" spans="1:22" ht="12.95" customHeight="1">
       <c r="A284" s="81"/>
       <c r="B284" s="47"/>
       <c r="C284" s="165"/>
@@ -22037,7 +21906,7 @@
       <c r="T284" s="81"/>
       <c r="U284" s="15"/>
     </row>
-    <row r="285" spans="1:22" ht="12.9" customHeight="1">
+    <row r="285" spans="1:22" ht="12.95" customHeight="1">
       <c r="A285" s="161"/>
       <c r="B285" s="47"/>
       <c r="C285" s="10"/>
@@ -22060,7 +21929,7 @@
       <c r="T285" s="161"/>
       <c r="U285" s="47"/>
     </row>
-    <row r="286" spans="1:22" ht="12.9" customHeight="1">
+    <row r="286" spans="1:22" ht="12.95" customHeight="1">
       <c r="A286" s="161"/>
       <c r="B286" s="47"/>
       <c r="C286" s="10"/>
@@ -22083,7 +21952,7 @@
       <c r="T286" s="161"/>
       <c r="U286" s="47"/>
     </row>
-    <row r="287" spans="1:22" ht="12.9" customHeight="1">
+    <row r="287" spans="1:22" ht="12.95" customHeight="1">
       <c r="A287" s="161"/>
       <c r="B287" s="47"/>
       <c r="C287" s="10"/>
@@ -22106,7 +21975,7 @@
       <c r="T287" s="161"/>
       <c r="U287" s="47"/>
     </row>
-    <row r="288" spans="1:22" ht="12.9" customHeight="1">
+    <row r="288" spans="1:22" ht="12.95" customHeight="1">
       <c r="A288" s="161"/>
       <c r="B288" s="47"/>
       <c r="C288" s="10"/>
@@ -22129,7 +21998,7 @@
       <c r="T288" s="161"/>
       <c r="U288" s="47"/>
     </row>
-    <row r="289" spans="1:21" ht="12.9" customHeight="1">
+    <row r="289" spans="1:21" ht="12.95" customHeight="1">
       <c r="A289" s="81"/>
       <c r="B289" s="47"/>
       <c r="C289" s="165"/>
@@ -22152,7 +22021,7 @@
       <c r="T289" s="81"/>
       <c r="U289" s="15"/>
     </row>
-    <row r="290" spans="1:21" ht="12.9" customHeight="1">
+    <row r="290" spans="1:21" ht="12.95" customHeight="1">
       <c r="A290" s="81"/>
       <c r="B290" s="47"/>
       <c r="C290" s="165"/>
@@ -22175,7 +22044,7 @@
       <c r="T290" s="81"/>
       <c r="U290" s="15"/>
     </row>
-    <row r="291" spans="1:21" ht="12.9" customHeight="1">
+    <row r="291" spans="1:21" ht="12.95" customHeight="1">
       <c r="A291" s="161"/>
       <c r="B291" s="47"/>
       <c r="C291" s="10"/>
@@ -22198,7 +22067,7 @@
       <c r="T291" s="81"/>
       <c r="U291" s="47"/>
     </row>
-    <row r="292" spans="1:21" ht="12.9" customHeight="1">
+    <row r="292" spans="1:21" ht="12.95" customHeight="1">
       <c r="A292" s="81"/>
       <c r="B292" s="47"/>
       <c r="C292" s="165"/>
@@ -22221,7 +22090,7 @@
       <c r="T292" s="81"/>
       <c r="U292" s="15"/>
     </row>
-    <row r="293" spans="1:21" ht="12.9" customHeight="1">
+    <row r="293" spans="1:21" ht="12.95" customHeight="1">
       <c r="A293" s="81"/>
       <c r="B293" s="47"/>
       <c r="C293" s="10"/>
@@ -22243,7 +22112,7 @@
       <c r="S293" s="42"/>
       <c r="T293" s="81"/>
     </row>
-    <row r="294" spans="1:21" ht="12.9" customHeight="1">
+    <row r="294" spans="1:21" ht="12.95" customHeight="1">
       <c r="A294" s="81"/>
       <c r="B294" s="47"/>
       <c r="C294" s="165"/>
@@ -22266,7 +22135,7 @@
       <c r="T294" s="81"/>
       <c r="U294" s="15"/>
     </row>
-    <row r="295" spans="1:21" ht="12.9" customHeight="1">
+    <row r="295" spans="1:21" ht="12.95" customHeight="1">
       <c r="A295" s="81"/>
       <c r="B295" s="47"/>
       <c r="C295" s="10"/>
@@ -22288,7 +22157,7 @@
       <c r="S295" s="42"/>
       <c r="T295" s="81"/>
     </row>
-    <row r="296" spans="1:21" s="21" customFormat="1" ht="12.9" customHeight="1">
+    <row r="296" spans="1:21" s="21" customFormat="1" ht="12.95" customHeight="1">
       <c r="A296" s="81"/>
       <c r="B296" s="47"/>
       <c r="C296" s="10"/>
@@ -22311,7 +22180,7 @@
       <c r="T296" s="81"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="1:21" s="16" customFormat="1" ht="12.9" customHeight="1">
+    <row r="297" spans="1:21" s="16" customFormat="1" ht="12.95" customHeight="1">
       <c r="A297" s="81"/>
       <c r="B297" s="47"/>
       <c r="C297" s="10"/>
@@ -22334,7 +22203,7 @@
       <c r="T297" s="81"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="1:21" ht="12.9" customHeight="1">
+    <row r="298" spans="1:21" ht="12.95" customHeight="1">
       <c r="A298" s="81"/>
       <c r="B298" s="47"/>
       <c r="C298" s="165"/>
@@ -22357,7 +22226,7 @@
       <c r="T298" s="81"/>
       <c r="U298" s="15"/>
     </row>
-    <row r="299" spans="1:21" ht="12.9" customHeight="1">
+    <row r="299" spans="1:21" ht="12.95" customHeight="1">
       <c r="A299" s="81"/>
       <c r="B299" s="47"/>
       <c r="C299" s="10"/>
@@ -22379,7 +22248,7 @@
       <c r="S299" s="42"/>
       <c r="T299" s="42"/>
     </row>
-    <row r="300" spans="1:21" ht="12.9" customHeight="1">
+    <row r="300" spans="1:21" ht="12.95" customHeight="1">
       <c r="A300" s="81"/>
       <c r="B300" s="47"/>
       <c r="C300" s="10"/>
@@ -22401,7 +22270,7 @@
       <c r="S300" s="42"/>
       <c r="T300" s="42"/>
     </row>
-    <row r="301" spans="1:21" ht="12.9" customHeight="1">
+    <row r="301" spans="1:21" ht="12.95" customHeight="1">
       <c r="A301" s="81"/>
       <c r="B301" s="47"/>
       <c r="C301" s="10"/>
@@ -22423,7 +22292,7 @@
       <c r="S301" s="42"/>
       <c r="T301" s="42"/>
     </row>
-    <row r="302" spans="1:21" ht="12.9" customHeight="1">
+    <row r="302" spans="1:21" ht="12.95" customHeight="1">
       <c r="A302" s="81"/>
       <c r="B302" s="47"/>
       <c r="C302" s="10"/>
@@ -22445,7 +22314,7 @@
       <c r="S302" s="42"/>
       <c r="T302" s="42"/>
     </row>
-    <row r="303" spans="1:21" ht="12.9" customHeight="1">
+    <row r="303" spans="1:21" ht="12.95" customHeight="1">
       <c r="A303" s="81"/>
       <c r="B303" s="47"/>
       <c r="C303" s="10"/>
@@ -22467,7 +22336,7 @@
       <c r="S303" s="42"/>
       <c r="T303" s="42"/>
     </row>
-    <row r="304" spans="1:21" ht="12.9" customHeight="1">
+    <row r="304" spans="1:21" ht="12.95" customHeight="1">
       <c r="A304" s="81"/>
       <c r="B304" s="47"/>
       <c r="C304" s="10"/>
@@ -22489,7 +22358,7 @@
       <c r="S304" s="42"/>
       <c r="T304" s="42"/>
     </row>
-    <row r="305" spans="1:21" ht="12.9" customHeight="1">
+    <row r="305" spans="1:21" ht="12.95" customHeight="1">
       <c r="A305" s="81"/>
       <c r="B305" s="47"/>
       <c r="C305" s="10"/>
@@ -22511,7 +22380,7 @@
       <c r="S305" s="42"/>
       <c r="T305" s="42"/>
     </row>
-    <row r="306" spans="1:21" ht="12.9" customHeight="1">
+    <row r="306" spans="1:21" ht="12.95" customHeight="1">
       <c r="A306" s="81"/>
       <c r="B306" s="47"/>
       <c r="C306" s="10"/>
@@ -22533,7 +22402,7 @@
       <c r="S306" s="42"/>
       <c r="T306" s="42"/>
     </row>
-    <row r="307" spans="1:21" ht="12.9" customHeight="1">
+    <row r="307" spans="1:21" ht="12.95" customHeight="1">
       <c r="A307" s="81"/>
       <c r="B307" s="47"/>
       <c r="C307" s="10"/>
@@ -22555,7 +22424,7 @@
       <c r="S307" s="42"/>
       <c r="T307" s="42"/>
     </row>
-    <row r="308" spans="1:21" ht="12.9" customHeight="1">
+    <row r="308" spans="1:21" ht="12.95" customHeight="1">
       <c r="A308" s="81"/>
       <c r="B308" s="47"/>
       <c r="C308" s="10"/>
@@ -22577,7 +22446,7 @@
       <c r="S308" s="42"/>
       <c r="T308" s="42"/>
     </row>
-    <row r="309" spans="1:21" ht="12.9" customHeight="1">
+    <row r="309" spans="1:21" ht="12.95" customHeight="1">
       <c r="A309" s="81"/>
       <c r="B309" s="47"/>
       <c r="C309" s="10"/>
@@ -22599,7 +22468,7 @@
       <c r="S309" s="164"/>
       <c r="T309" s="42"/>
     </row>
-    <row r="310" spans="1:21" ht="12.9" customHeight="1">
+    <row r="310" spans="1:21" ht="12.95" customHeight="1">
       <c r="A310" s="81"/>
       <c r="B310" s="47"/>
       <c r="C310" s="10"/>
@@ -22621,7 +22490,7 @@
       <c r="S310" s="164"/>
       <c r="T310" s="42"/>
     </row>
-    <row r="311" spans="1:21" ht="12.9" customHeight="1">
+    <row r="311" spans="1:21" ht="12.95" customHeight="1">
       <c r="A311" s="161"/>
       <c r="B311" s="47"/>
       <c r="C311" s="10"/>
@@ -22644,7 +22513,7 @@
       <c r="T311" s="81"/>
       <c r="U311" s="47"/>
     </row>
-    <row r="312" spans="1:21" ht="12.9" customHeight="1">
+    <row r="312" spans="1:21" ht="12.95" customHeight="1">
       <c r="A312" s="161"/>
       <c r="B312" s="47"/>
       <c r="C312" s="10"/>
@@ -22667,7 +22536,7 @@
       <c r="T312" s="161"/>
       <c r="U312" s="47"/>
     </row>
-    <row r="313" spans="1:21" ht="12.9" customHeight="1">
+    <row r="313" spans="1:21" ht="12.95" customHeight="1">
       <c r="A313" s="161"/>
       <c r="B313" s="47"/>
       <c r="C313" s="10"/>
@@ -22690,7 +22559,7 @@
       <c r="T313" s="161"/>
       <c r="U313" s="47"/>
     </row>
-    <row r="314" spans="1:21" ht="12.9" customHeight="1">
+    <row r="314" spans="1:21" ht="12.95" customHeight="1">
       <c r="A314" s="161"/>
       <c r="B314" s="47"/>
       <c r="C314" s="10"/>
@@ -22713,7 +22582,7 @@
       <c r="T314" s="161"/>
       <c r="U314" s="47"/>
     </row>
-    <row r="315" spans="1:21" ht="12.9" customHeight="1">
+    <row r="315" spans="1:21" ht="12.95" customHeight="1">
       <c r="A315" s="161"/>
       <c r="B315" s="47"/>
       <c r="C315" s="10"/>
@@ -22736,7 +22605,7 @@
       <c r="T315" s="161"/>
       <c r="U315" s="47"/>
     </row>
-    <row r="316" spans="1:21" ht="12.9" customHeight="1">
+    <row r="316" spans="1:21" ht="12.95" customHeight="1">
       <c r="A316" s="161"/>
       <c r="B316" s="47"/>
       <c r="C316" s="10"/>
@@ -22759,7 +22628,7 @@
       <c r="T316" s="161"/>
       <c r="U316" s="47"/>
     </row>
-    <row r="317" spans="1:21" ht="12.9" customHeight="1">
+    <row r="317" spans="1:21" ht="12.95" customHeight="1">
       <c r="A317" s="161"/>
       <c r="B317" s="47"/>
       <c r="C317" s="10"/>
@@ -22782,7 +22651,7 @@
       <c r="T317" s="81"/>
       <c r="U317" s="47"/>
     </row>
-    <row r="318" spans="1:21" ht="12.9" customHeight="1">
+    <row r="318" spans="1:21" ht="12.95" customHeight="1">
       <c r="A318" s="161"/>
       <c r="B318" s="47"/>
       <c r="C318" s="10"/>
@@ -22805,7 +22674,7 @@
       <c r="T318" s="81"/>
       <c r="U318" s="47"/>
     </row>
-    <row r="319" spans="1:21" ht="12.9" customHeight="1">
+    <row r="319" spans="1:21" ht="12.95" customHeight="1">
       <c r="A319" s="161"/>
       <c r="B319" s="47"/>
       <c r="C319" s="10"/>
@@ -22828,7 +22697,7 @@
       <c r="T319" s="81"/>
       <c r="U319" s="47"/>
     </row>
-    <row r="320" spans="1:21" ht="12.9" customHeight="1">
+    <row r="320" spans="1:21" ht="12.95" customHeight="1">
       <c r="A320" s="161"/>
       <c r="B320" s="47"/>
       <c r="C320" s="10"/>
@@ -22851,7 +22720,7 @@
       <c r="T320" s="81"/>
       <c r="U320" s="47"/>
     </row>
-    <row r="321" spans="1:21" ht="12.9" customHeight="1">
+    <row r="321" spans="1:21" ht="12.95" customHeight="1">
       <c r="A321" s="161"/>
       <c r="B321" s="47"/>
       <c r="C321" s="10"/>
@@ -22874,7 +22743,7 @@
       <c r="T321" s="161"/>
       <c r="U321" s="47"/>
     </row>
-    <row r="322" spans="1:21" ht="12.9" customHeight="1">
+    <row r="322" spans="1:21" ht="12.95" customHeight="1">
       <c r="A322" s="161"/>
       <c r="B322" s="47"/>
       <c r="C322" s="10"/>
@@ -22897,7 +22766,7 @@
       <c r="T322" s="161"/>
       <c r="U322" s="47"/>
     </row>
-    <row r="323" spans="1:21" ht="12.9" customHeight="1">
+    <row r="323" spans="1:21" ht="12.95" customHeight="1">
       <c r="A323" s="161"/>
       <c r="B323" s="47"/>
       <c r="C323" s="10"/>
@@ -22920,7 +22789,7 @@
       <c r="T323" s="161"/>
       <c r="U323" s="47"/>
     </row>
-    <row r="324" spans="1:21" ht="12.9" customHeight="1">
+    <row r="324" spans="1:21" ht="12.95" customHeight="1">
       <c r="A324" s="161"/>
       <c r="B324" s="47"/>
       <c r="C324" s="10"/>
@@ -22943,7 +22812,7 @@
       <c r="T324" s="161"/>
       <c r="U324" s="47"/>
     </row>
-    <row r="325" spans="1:21" ht="12.9" customHeight="1">
+    <row r="325" spans="1:21" ht="12.95" customHeight="1">
       <c r="A325" s="161"/>
       <c r="B325" s="47"/>
       <c r="C325" s="10"/>
@@ -22966,7 +22835,7 @@
       <c r="T325" s="161"/>
       <c r="U325" s="47"/>
     </row>
-    <row r="326" spans="1:21" ht="12.9" customHeight="1">
+    <row r="326" spans="1:21" ht="12.95" customHeight="1">
       <c r="A326" s="161"/>
       <c r="B326" s="47"/>
       <c r="C326" s="10"/>
@@ -22989,7 +22858,7 @@
       <c r="T326" s="161"/>
       <c r="U326" s="47"/>
     </row>
-    <row r="327" spans="1:21" ht="12.9" customHeight="1">
+    <row r="327" spans="1:21" ht="12.95" customHeight="1">
       <c r="A327" s="161"/>
       <c r="B327" s="47"/>
       <c r="C327" s="10"/>
@@ -23012,7 +22881,7 @@
       <c r="T327" s="161"/>
       <c r="U327" s="47"/>
     </row>
-    <row r="328" spans="1:21" ht="12.9" customHeight="1">
+    <row r="328" spans="1:21" ht="12.95" customHeight="1">
       <c r="A328" s="161"/>
       <c r="B328" s="47"/>
       <c r="C328" s="10"/>
@@ -23035,7 +22904,7 @@
       <c r="T328" s="161"/>
       <c r="U328" s="47"/>
     </row>
-    <row r="329" spans="1:21" ht="12.9" customHeight="1">
+    <row r="329" spans="1:21" ht="12.95" customHeight="1">
       <c r="A329" s="161"/>
       <c r="B329" s="47"/>
       <c r="C329" s="10"/>
@@ -23058,7 +22927,7 @@
       <c r="T329" s="161"/>
       <c r="U329" s="47"/>
     </row>
-    <row r="330" spans="1:21" ht="12.9" customHeight="1">
+    <row r="330" spans="1:21" ht="12.95" customHeight="1">
       <c r="A330" s="57"/>
       <c r="M330" s="25"/>
       <c r="N330" s="26"/>
@@ -23066,7 +22935,7 @@
       <c r="S330" s="26"/>
       <c r="U330" s="25"/>
     </row>
-    <row r="331" spans="1:21" ht="12.9" customHeight="1">
+    <row r="331" spans="1:21" ht="12.95" customHeight="1">
       <c r="A331" s="57"/>
       <c r="K331" s="57"/>
       <c r="L331" s="57"/>
@@ -23078,7 +22947,7 @@
       <c r="S331" s="26"/>
       <c r="U331" s="25"/>
     </row>
-    <row r="332" spans="1:21" ht="12.9" customHeight="1">
+    <row r="332" spans="1:21" ht="12.95" customHeight="1">
       <c r="A332" s="57"/>
       <c r="M332" s="25"/>
       <c r="N332" s="26"/>
@@ -23087,7 +22956,7 @@
       <c r="T332" s="57"/>
       <c r="U332" s="25"/>
     </row>
-    <row r="333" spans="1:21" ht="16.95" customHeight="1"/>
+    <row r="333" spans="1:21" ht="16.899999999999999" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:U332" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="12">
